--- a/specs1.xlsx
+++ b/specs1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1089">
   <si>
     <t>vehicle_objectkey</t>
   </si>
@@ -3132,100 +3132,157 @@
     <t>fff48588ff92d6b20aad5a2dbd92751825df852</t>
   </si>
   <si>
-    <t>OverallHeight</t>
-  </si>
-  <si>
-    <t>GVWR</t>
-  </si>
-  <si>
-    <t>SideDoor</t>
-  </si>
-  <si>
-    <t>OverallLength</t>
-  </si>
-  <si>
-    <t>IntHeight</t>
-  </si>
-  <si>
-    <t>CurbWeight</t>
-  </si>
-  <si>
-    <t>HitchWeight</t>
-  </si>
-  <si>
-    <t>InteriorHeight</t>
-  </si>
-  <si>
-    <t>InteriorWidth</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
-    <t>InteriorLength</t>
-  </si>
-  <si>
-    <t>RDoorType</t>
-  </si>
-  <si>
-    <t>WheelWellWidth</t>
-  </si>
-  <si>
-    <t>RDoorWidth</t>
-  </si>
-  <si>
-    <t>RearDoorHeight</t>
-  </si>
-  <si>
-    <t>DoorWidth</t>
-  </si>
-  <si>
-    <t>RearDoorWidth</t>
-  </si>
-  <si>
-    <t>IntLength</t>
-  </si>
-  <si>
-    <t>MainFrame</t>
-  </si>
-  <si>
-    <t>RearDoorType</t>
-  </si>
-  <si>
-    <t>OverallWidth</t>
-  </si>
-  <si>
-    <t>DoorHeight</t>
-  </si>
-  <si>
-    <t>FrontHatchWidth</t>
-  </si>
-  <si>
-    <t>IntWidth</t>
-  </si>
-  <si>
-    <t>FrontDoorHeight</t>
-  </si>
-  <si>
-    <t>DeckHeight</t>
-  </si>
-  <si>
-    <t>BallSize</t>
-  </si>
-  <si>
-    <t>RDoorHeight</t>
-  </si>
-  <si>
-    <t>PlatformHeight</t>
-  </si>
-  <si>
-    <t>FrontDoorWidth</t>
-  </si>
-  <si>
-    <t>FrontHatchHeight</t>
-  </si>
-  <si>
-    <t>FrontDoorType</t>
+    <t>specs MCC</t>
+  </si>
+  <si>
+    <t>spec_name Website</t>
+  </si>
+  <si>
+    <t>spec_name PSN</t>
+  </si>
+  <si>
+    <t>parent Name</t>
+  </si>
+  <si>
+    <t>append</t>
+  </si>
+  <si>
+    <t>prepend</t>
+  </si>
+  <si>
+    <t>imperial unitName</t>
+  </si>
+  <si>
+    <t>metric unitName</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>wheels</t>
+  </si>
+  <si>
+    <t>overallHeight</t>
+  </si>
+  <si>
+    <t>gVWR</t>
+  </si>
+  <si>
+    <t>sideDoor</t>
+  </si>
+  <si>
+    <t>overallLength</t>
+  </si>
+  <si>
+    <t>intHeight</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>curbWeight</t>
+  </si>
+  <si>
+    <t>hitchWeight</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t>interiorHeight</t>
+  </si>
+  <si>
+    <t>interiorWidth</t>
+  </si>
+  <si>
+    <t>tireSize</t>
+  </si>
+  <si>
+    <t>interiorLength</t>
+  </si>
+  <si>
+    <t>rDoorType</t>
+  </si>
+  <si>
+    <t>wheelWellWidth</t>
+  </si>
+  <si>
+    <t>rDoorWidth</t>
+  </si>
+  <si>
+    <t>rearDoorHeight</t>
+  </si>
+  <si>
+    <t>axles</t>
+  </si>
+  <si>
+    <t>doorWidth</t>
+  </si>
+  <si>
+    <t>rearDoorWidth</t>
+  </si>
+  <si>
+    <t>intLength</t>
+  </si>
+  <si>
+    <t>mainFrame</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>rearDoorType</t>
+  </si>
+  <si>
+    <t>axle</t>
+  </si>
+  <si>
+    <t>overallWidth</t>
+  </si>
+  <si>
+    <t>brakes</t>
+  </si>
+  <si>
+    <t>doorHeight</t>
+  </si>
+  <si>
+    <t>frontHatchWidth</t>
+  </si>
+  <si>
+    <t>intWidth</t>
+  </si>
+  <si>
+    <t>frontDoorHeight</t>
+  </si>
+  <si>
+    <t>deckHeight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>ballSize</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>rDoorHeight</t>
+  </si>
+  <si>
+    <t>platformHeight</t>
+  </si>
+  <si>
+    <t>frontDoorWidth</t>
+  </si>
+  <si>
+    <t>frontHatchHeight</t>
+  </si>
+  <si>
+    <t>frontDoorType</t>
   </si>
 </sst>
 </file>
@@ -3233,7 +3290,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
       <family val="0"/>
@@ -3269,6 +3326,12 @@
       <i val="1"/>
       <color rgb="FFFFFFFF"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <i val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3300,7 +3363,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -3315,6 +3378,7 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -21951,32 +22015,40 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-      <c r="H1" s="7" t="n"/>
-      <c r="I1" s="7" t="n"/>
-      <c r="J1" s="7" t="n"/>
-      <c r="K1" s="7" t="n"/>
-      <c r="L1" s="7" t="n"/>
-      <c r="M1" s="7" t="n"/>
-      <c r="N1" s="7" t="n"/>
-      <c r="O1" s="7" t="n"/>
-      <c r="P1" s="7" t="n"/>
-      <c r="Q1" s="7" t="n"/>
-      <c r="R1" s="7" t="n"/>
+      <c r="A1" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I1" s="8" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="8" t="n"/>
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="8" t="n"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -21986,7 +22058,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>1046</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -21997,7 +22081,19 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>1048</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -22008,7 +22104,19 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -22019,7 +22127,19 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -22030,7 +22150,19 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>1040</v>
+        <v>1051</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -22041,7 +22173,19 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -22052,7 +22196,19 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>1042</v>
+        <v>1053</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -22063,7 +22219,19 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -22074,7 +22242,19 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -22085,7 +22265,19 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -22096,7 +22288,19 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>1046</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -22107,7 +22311,19 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -22118,7 +22334,19 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -22129,7 +22357,19 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -22140,7 +22380,19 @@
         <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>1044</v>
+        <v>1056</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -22151,7 +22403,19 @@
         <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -22162,7 +22426,19 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -22173,7 +22449,19 @@
         <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>1045</v>
+        <v>1058</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -22184,7 +22472,19 @@
         <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -22195,7 +22495,19 @@
         <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -22206,6 +22518,18 @@
         <v>117</v>
       </c>
       <c r="C22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H22" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -22217,7 +22541,19 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -22228,7 +22564,19 @@
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -22239,7 +22587,19 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>1049</v>
+        <v>1062</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -22250,7 +22610,19 @@
         <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -22261,7 +22633,19 @@
         <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -22272,7 +22656,19 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -22283,7 +22679,19 @@
         <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -22294,7 +22702,19 @@
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -22305,7 +22725,19 @@
         <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>1050</v>
+        <v>1063</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -22316,7 +22748,19 @@
         <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>1051</v>
+        <v>1064</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -22327,7 +22771,19 @@
         <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -22338,7 +22794,19 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -22349,7 +22817,19 @@
         <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>1052</v>
+        <v>1065</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -22360,7 +22840,19 @@
         <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -22371,7 +22863,19 @@
         <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -22382,7 +22886,19 @@
         <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -22393,7 +22909,19 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -22404,7 +22932,19 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -22415,7 +22955,19 @@
         <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>1053</v>
+        <v>1067</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -22426,7 +22978,19 @@
         <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -22437,7 +23001,19 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>1044</v>
+        <v>1056</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -22448,7 +23024,19 @@
         <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>1054</v>
+        <v>1068</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -22459,7 +23047,19 @@
         <v>207</v>
       </c>
       <c r="C45" t="s">
-        <v>1055</v>
+        <v>1069</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -22470,7 +23070,19 @@
         <v>210</v>
       </c>
       <c r="C46" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -22481,7 +23093,19 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>1048</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -22492,7 +23116,19 @@
         <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>1055</v>
+        <v>1069</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -22503,7 +23139,19 @@
         <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -22514,7 +23162,19 @@
         <v>226</v>
       </c>
       <c r="C50" t="s">
-        <v>226</v>
+        <v>1071</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -22525,7 +23185,19 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -22536,7 +23208,19 @@
         <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -22547,7 +23231,19 @@
         <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -22558,7 +23254,19 @@
         <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -22569,7 +23277,19 @@
         <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>1044</v>
+        <v>1056</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -22580,7 +23300,19 @@
         <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>1055</v>
+        <v>1069</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -22591,6 +23323,18 @@
         <v>117</v>
       </c>
       <c r="C57" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H57" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -22602,7 +23346,19 @@
         <v>253</v>
       </c>
       <c r="C58" t="s">
-        <v>1057</v>
+        <v>1072</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -22613,7 +23369,19 @@
         <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -22624,7 +23392,19 @@
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -22635,7 +23415,19 @@
         <v>261</v>
       </c>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>1073</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -22646,7 +23438,19 @@
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -22657,7 +23461,19 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -22668,7 +23484,19 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -22679,7 +23507,19 @@
         <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -22690,7 +23530,19 @@
         <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -22701,7 +23553,19 @@
         <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -22712,7 +23576,19 @@
         <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -22723,7 +23599,19 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -22734,7 +23622,19 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>1048</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -22745,7 +23645,19 @@
         <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -22756,7 +23668,19 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -22767,7 +23691,19 @@
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -22778,7 +23714,19 @@
         <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -22789,6 +23737,18 @@
         <v>117</v>
       </c>
       <c r="C75" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H75" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -22800,7 +23760,19 @@
         <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -22811,7 +23783,19 @@
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -22822,6 +23806,18 @@
         <v>117</v>
       </c>
       <c r="C78" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H78" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -22833,7 +23829,19 @@
         <v>96</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -22844,7 +23852,19 @@
         <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -22855,7 +23875,19 @@
         <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -22866,7 +23898,19 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -22877,7 +23921,19 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -22888,7 +23944,19 @@
         <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -22899,7 +23967,19 @@
         <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -22910,7 +23990,19 @@
         <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -22921,7 +24013,19 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -22932,7 +24036,19 @@
         <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -22943,7 +24059,19 @@
         <v>210</v>
       </c>
       <c r="C89" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -22954,7 +24082,19 @@
         <v>339</v>
       </c>
       <c r="C90" t="s">
-        <v>1058</v>
+        <v>1074</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -22965,7 +24105,19 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -22976,7 +24128,19 @@
         <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -22987,7 +24151,19 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -22998,7 +24174,19 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -23009,7 +24197,19 @@
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -23020,7 +24220,19 @@
         <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -23031,6 +24243,18 @@
         <v>117</v>
       </c>
       <c r="C97" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H97" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -23042,7 +24266,19 @@
         <v>253</v>
       </c>
       <c r="C98" t="s">
-        <v>1057</v>
+        <v>1072</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -23053,7 +24289,19 @@
         <v>367</v>
       </c>
       <c r="C99" t="s">
-        <v>367</v>
+        <v>1075</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -23064,7 +24312,19 @@
         <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -23075,7 +24335,19 @@
         <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -23086,7 +24358,19 @@
         <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -23097,7 +24381,19 @@
         <v>210</v>
       </c>
       <c r="C103" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -23108,7 +24404,19 @@
         <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -23119,7 +24427,19 @@
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -23130,7 +24450,19 @@
         <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -23141,7 +24473,19 @@
         <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -23152,7 +24496,19 @@
         <v>167</v>
       </c>
       <c r="C108" t="s">
-        <v>1052</v>
+        <v>1065</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -23163,7 +24519,19 @@
         <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -23174,7 +24542,19 @@
         <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -23185,7 +24565,19 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -23196,7 +24588,19 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -23207,7 +24611,19 @@
         <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -23218,7 +24634,19 @@
         <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -23229,7 +24657,19 @@
         <v>96</v>
       </c>
       <c r="C115" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -23240,7 +24680,19 @@
         <v>412</v>
       </c>
       <c r="C116" t="s">
-        <v>1059</v>
+        <v>1076</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -23251,7 +24703,19 @@
         <v>367</v>
       </c>
       <c r="C117" t="s">
-        <v>367</v>
+        <v>1075</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -23262,7 +24726,19 @@
         <v>66</v>
       </c>
       <c r="C118" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -23273,6 +24749,18 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H119" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -23284,7 +24772,19 @@
         <v>96</v>
       </c>
       <c r="C120" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -23295,6 +24795,18 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H121" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -23306,7 +24818,19 @@
         <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>1054</v>
+        <v>1068</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -23317,7 +24841,19 @@
         <v>96</v>
       </c>
       <c r="C123" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -23328,7 +24864,19 @@
         <v>210</v>
       </c>
       <c r="C124" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -23339,7 +24887,19 @@
         <v>104</v>
       </c>
       <c r="C125" t="s">
-        <v>1045</v>
+        <v>1058</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -23350,7 +24910,19 @@
         <v>109</v>
       </c>
       <c r="C126" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -23361,7 +24933,19 @@
         <v>83</v>
       </c>
       <c r="C127" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -23372,7 +24956,19 @@
         <v>104</v>
       </c>
       <c r="C128" t="s">
-        <v>1045</v>
+        <v>1058</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -23383,7 +24979,19 @@
         <v>210</v>
       </c>
       <c r="C129" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -23394,7 +25002,19 @@
         <v>66</v>
       </c>
       <c r="C130" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -23405,7 +25025,19 @@
         <v>122</v>
       </c>
       <c r="C131" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -23416,7 +25048,19 @@
         <v>96</v>
       </c>
       <c r="C132" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -23427,7 +25071,19 @@
         <v>83</v>
       </c>
       <c r="C133" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -23438,7 +25094,19 @@
         <v>339</v>
       </c>
       <c r="C134" t="s">
-        <v>1058</v>
+        <v>1074</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -23449,7 +25117,19 @@
         <v>96</v>
       </c>
       <c r="C135" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -23460,7 +25140,19 @@
         <v>191</v>
       </c>
       <c r="C136" t="s">
-        <v>1053</v>
+        <v>1067</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -23471,7 +25163,19 @@
         <v>172</v>
       </c>
       <c r="C137" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -23482,7 +25186,19 @@
         <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -23493,7 +25209,19 @@
         <v>83</v>
       </c>
       <c r="C139" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -23504,7 +25232,19 @@
         <v>96</v>
       </c>
       <c r="C140" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -23515,7 +25255,19 @@
         <v>122</v>
       </c>
       <c r="C141" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -23526,7 +25278,19 @@
         <v>96</v>
       </c>
       <c r="C142" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -23537,7 +25301,19 @@
         <v>92</v>
       </c>
       <c r="C143" t="s">
-        <v>1044</v>
+        <v>1056</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -23548,7 +25324,19 @@
         <v>66</v>
       </c>
       <c r="C144" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -23559,7 +25347,19 @@
         <v>96</v>
       </c>
       <c r="C145" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -23570,7 +25370,19 @@
         <v>122</v>
       </c>
       <c r="C146" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -23581,7 +25393,19 @@
         <v>191</v>
       </c>
       <c r="C147" t="s">
-        <v>1053</v>
+        <v>1067</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -23592,7 +25416,19 @@
         <v>96</v>
       </c>
       <c r="C148" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -23603,7 +25439,19 @@
         <v>96</v>
       </c>
       <c r="C149" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -23614,7 +25462,19 @@
         <v>21</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>1046</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -23625,7 +25485,19 @@
         <v>122</v>
       </c>
       <c r="C151" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -23636,7 +25508,19 @@
         <v>83</v>
       </c>
       <c r="C152" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -23647,7 +25531,19 @@
         <v>167</v>
       </c>
       <c r="C153" t="s">
-        <v>1052</v>
+        <v>1065</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -23658,7 +25554,19 @@
         <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -23669,7 +25577,19 @@
         <v>50</v>
       </c>
       <c r="C155" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -23680,7 +25600,19 @@
         <v>412</v>
       </c>
       <c r="C156" t="s">
-        <v>1059</v>
+        <v>1076</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -23691,7 +25623,19 @@
         <v>66</v>
       </c>
       <c r="C157" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -23702,7 +25646,19 @@
         <v>520</v>
       </c>
       <c r="C158" t="s">
-        <v>1060</v>
+        <v>1077</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -23713,7 +25669,19 @@
         <v>122</v>
       </c>
       <c r="C159" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -23724,7 +25692,19 @@
         <v>526</v>
       </c>
       <c r="C160" t="s">
-        <v>1061</v>
+        <v>1078</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -23735,7 +25715,19 @@
         <v>122</v>
       </c>
       <c r="C161" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -23746,7 +25738,19 @@
         <v>532</v>
       </c>
       <c r="C162" t="s">
-        <v>1062</v>
+        <v>1079</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -23757,7 +25761,19 @@
         <v>83</v>
       </c>
       <c r="C163" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -23768,7 +25784,19 @@
         <v>50</v>
       </c>
       <c r="C164" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -23779,7 +25807,19 @@
         <v>191</v>
       </c>
       <c r="C165" t="s">
-        <v>1053</v>
+        <v>1067</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -23790,7 +25830,19 @@
         <v>191</v>
       </c>
       <c r="C166" t="s">
-        <v>1053</v>
+        <v>1067</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -23801,7 +25853,19 @@
         <v>36</v>
       </c>
       <c r="C167" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -23812,7 +25876,19 @@
         <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -23823,7 +25899,19 @@
         <v>96</v>
       </c>
       <c r="C169" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -23834,7 +25922,19 @@
         <v>210</v>
       </c>
       <c r="C170" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -23845,7 +25945,19 @@
         <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>1046</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -23856,7 +25968,19 @@
         <v>226</v>
       </c>
       <c r="C172" t="s">
-        <v>226</v>
+        <v>1071</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -23867,7 +25991,19 @@
         <v>203</v>
       </c>
       <c r="C173" t="s">
-        <v>1054</v>
+        <v>1068</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -23878,7 +26014,19 @@
         <v>122</v>
       </c>
       <c r="C174" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -23889,7 +26037,19 @@
         <v>172</v>
       </c>
       <c r="C175" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -23900,7 +26060,19 @@
         <v>226</v>
       </c>
       <c r="C176" t="s">
-        <v>226</v>
+        <v>1071</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -23911,7 +26083,19 @@
         <v>339</v>
       </c>
       <c r="C177" t="s">
-        <v>1058</v>
+        <v>1074</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -23922,7 +26106,19 @@
         <v>569</v>
       </c>
       <c r="C178" t="s">
-        <v>1063</v>
+        <v>1080</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -23933,7 +26129,19 @@
         <v>96</v>
       </c>
       <c r="C179" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -23944,7 +26152,19 @@
         <v>207</v>
       </c>
       <c r="C180" t="s">
-        <v>1055</v>
+        <v>1069</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -23955,7 +26175,19 @@
         <v>36</v>
       </c>
       <c r="C181" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -23966,7 +26198,19 @@
         <v>339</v>
       </c>
       <c r="C182" t="s">
-        <v>1058</v>
+        <v>1074</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -23977,7 +26221,19 @@
         <v>41</v>
       </c>
       <c r="C183" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -23988,7 +26244,19 @@
         <v>109</v>
       </c>
       <c r="C184" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -23999,7 +26267,19 @@
         <v>96</v>
       </c>
       <c r="C185" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -24010,7 +26290,19 @@
         <v>96</v>
       </c>
       <c r="C186" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -24021,7 +26313,19 @@
         <v>83</v>
       </c>
       <c r="C187" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -24032,7 +26336,19 @@
         <v>172</v>
       </c>
       <c r="C188" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -24043,7 +26359,19 @@
         <v>167</v>
       </c>
       <c r="C189" t="s">
-        <v>1052</v>
+        <v>1065</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -24054,7 +26382,19 @@
         <v>50</v>
       </c>
       <c r="C190" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -24065,7 +26405,19 @@
         <v>50</v>
       </c>
       <c r="C191" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -24076,7 +26428,19 @@
         <v>36</v>
       </c>
       <c r="C192" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -24087,7 +26451,19 @@
         <v>96</v>
       </c>
       <c r="C193" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -24098,7 +26474,19 @@
         <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -24109,7 +26497,19 @@
         <v>607</v>
       </c>
       <c r="C195" t="s">
-        <v>607</v>
+        <v>1081</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -24120,7 +26520,19 @@
         <v>66</v>
       </c>
       <c r="C196" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -24131,7 +26543,19 @@
         <v>96</v>
       </c>
       <c r="C197" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -24142,7 +26566,19 @@
         <v>607</v>
       </c>
       <c r="C198" t="s">
-        <v>607</v>
+        <v>1081</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -24153,7 +26589,19 @@
         <v>36</v>
       </c>
       <c r="C199" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -24164,7 +26612,19 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>1054</v>
+        <v>1068</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -24175,7 +26635,19 @@
         <v>172</v>
       </c>
       <c r="C201" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -24186,7 +26658,19 @@
         <v>83</v>
       </c>
       <c r="C202" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G202" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -24197,7 +26681,19 @@
         <v>96</v>
       </c>
       <c r="C203" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -24208,7 +26704,19 @@
         <v>66</v>
       </c>
       <c r="C204" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -24219,7 +26727,19 @@
         <v>83</v>
       </c>
       <c r="C205" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -24230,7 +26750,19 @@
         <v>96</v>
       </c>
       <c r="C206" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -24241,7 +26773,19 @@
         <v>253</v>
       </c>
       <c r="C207" t="s">
-        <v>1057</v>
+        <v>1072</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -24252,7 +26796,19 @@
         <v>50</v>
       </c>
       <c r="C208" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -24263,7 +26819,19 @@
         <v>122</v>
       </c>
       <c r="C209" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G209" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -24274,7 +26842,19 @@
         <v>50</v>
       </c>
       <c r="C210" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -24285,7 +26865,19 @@
         <v>41</v>
       </c>
       <c r="C211" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -24296,7 +26888,19 @@
         <v>66</v>
       </c>
       <c r="C212" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -24307,7 +26911,19 @@
         <v>339</v>
       </c>
       <c r="C213" t="s">
-        <v>1058</v>
+        <v>1074</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -24318,7 +26934,19 @@
         <v>607</v>
       </c>
       <c r="C214" t="s">
-        <v>607</v>
+        <v>1081</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -24329,7 +26957,19 @@
         <v>66</v>
       </c>
       <c r="C215" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -24340,7 +26980,19 @@
         <v>83</v>
       </c>
       <c r="C216" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -24351,7 +27003,19 @@
         <v>651</v>
       </c>
       <c r="C217" t="s">
-        <v>1064</v>
+        <v>1082</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -24362,7 +27026,19 @@
         <v>167</v>
       </c>
       <c r="C218" t="s">
-        <v>1052</v>
+        <v>1065</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -24373,7 +27049,19 @@
         <v>66</v>
       </c>
       <c r="C219" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G219" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -24384,7 +27072,19 @@
         <v>104</v>
       </c>
       <c r="C220" t="s">
-        <v>1045</v>
+        <v>1058</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -24395,7 +27095,19 @@
         <v>50</v>
       </c>
       <c r="C221" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -24406,7 +27118,19 @@
         <v>109</v>
       </c>
       <c r="C222" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -24417,7 +27141,19 @@
         <v>66</v>
       </c>
       <c r="C223" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -24428,7 +27164,19 @@
         <v>66</v>
       </c>
       <c r="C224" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -24439,7 +27187,19 @@
         <v>96</v>
       </c>
       <c r="C225" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -24450,7 +27210,19 @@
         <v>66</v>
       </c>
       <c r="C226" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -24461,7 +27233,19 @@
         <v>41</v>
       </c>
       <c r="C227" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G227" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H227" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -24472,7 +27256,19 @@
         <v>83</v>
       </c>
       <c r="C228" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -24483,7 +27279,19 @@
         <v>172</v>
       </c>
       <c r="C229" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G229" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -24494,7 +27302,19 @@
         <v>96</v>
       </c>
       <c r="C230" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -24505,7 +27325,19 @@
         <v>96</v>
       </c>
       <c r="C231" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G231" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -24516,7 +27348,19 @@
         <v>96</v>
       </c>
       <c r="C232" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G232" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -24527,7 +27371,19 @@
         <v>122</v>
       </c>
       <c r="C233" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G233" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -24538,7 +27394,19 @@
         <v>122</v>
       </c>
       <c r="C234" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G234" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -24549,7 +27417,19 @@
         <v>41</v>
       </c>
       <c r="C235" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G235" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -24560,7 +27440,19 @@
         <v>203</v>
       </c>
       <c r="C236" t="s">
-        <v>1054</v>
+        <v>1068</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G236" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -24571,7 +27463,19 @@
         <v>36</v>
       </c>
       <c r="C237" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -24582,6 +27486,18 @@
         <v>117</v>
       </c>
       <c r="C238" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G238" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H238" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -24593,7 +27509,19 @@
         <v>83</v>
       </c>
       <c r="C239" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G239" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -24604,7 +27532,19 @@
         <v>122</v>
       </c>
       <c r="C240" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G240" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -24615,7 +27555,19 @@
         <v>122</v>
       </c>
       <c r="C241" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G241" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -24626,7 +27578,19 @@
         <v>122</v>
       </c>
       <c r="C242" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -24637,7 +27601,19 @@
         <v>96</v>
       </c>
       <c r="C243" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G243" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -24648,6 +27624,18 @@
         <v>117</v>
       </c>
       <c r="C244" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G244" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H244" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -24659,7 +27647,19 @@
         <v>109</v>
       </c>
       <c r="C245" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -24670,7 +27670,19 @@
         <v>96</v>
       </c>
       <c r="C246" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G246" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -24681,7 +27693,19 @@
         <v>21</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>1046</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -24692,7 +27716,19 @@
         <v>50</v>
       </c>
       <c r="C248" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G248" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -24703,7 +27739,19 @@
         <v>532</v>
       </c>
       <c r="C249" t="s">
-        <v>1062</v>
+        <v>1079</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G249" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -24714,7 +27762,19 @@
         <v>41</v>
       </c>
       <c r="C250" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -24725,7 +27785,19 @@
         <v>66</v>
       </c>
       <c r="C251" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -24736,7 +27808,19 @@
         <v>66</v>
       </c>
       <c r="C252" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G252" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -24747,7 +27831,19 @@
         <v>66</v>
       </c>
       <c r="C253" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -24758,7 +27854,19 @@
         <v>83</v>
       </c>
       <c r="C254" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -24769,7 +27877,19 @@
         <v>83</v>
       </c>
       <c r="C255" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -24780,7 +27900,19 @@
         <v>127</v>
       </c>
       <c r="C256" t="s">
-        <v>1049</v>
+        <v>1062</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G256" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -24791,7 +27923,19 @@
         <v>50</v>
       </c>
       <c r="C257" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -24802,7 +27946,19 @@
         <v>50</v>
       </c>
       <c r="C258" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -24813,7 +27969,19 @@
         <v>66</v>
       </c>
       <c r="C259" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -24824,7 +27992,19 @@
         <v>50</v>
       </c>
       <c r="C260" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -24835,7 +28015,19 @@
         <v>50</v>
       </c>
       <c r="C261" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G261" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -24846,7 +28038,19 @@
         <v>41</v>
       </c>
       <c r="C262" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -24857,7 +28061,19 @@
         <v>66</v>
       </c>
       <c r="C263" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G263" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -24868,7 +28084,19 @@
         <v>226</v>
       </c>
       <c r="C264" t="s">
-        <v>226</v>
+        <v>1071</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G264" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -24879,7 +28107,19 @@
         <v>96</v>
       </c>
       <c r="C265" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G265" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -24890,7 +28130,19 @@
         <v>152</v>
       </c>
       <c r="C266" t="s">
-        <v>1050</v>
+        <v>1063</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G266" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -24901,7 +28153,19 @@
         <v>83</v>
       </c>
       <c r="C267" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G267" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -24912,7 +28176,19 @@
         <v>172</v>
       </c>
       <c r="C268" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -24923,7 +28199,19 @@
         <v>122</v>
       </c>
       <c r="C269" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -24934,7 +28222,19 @@
         <v>763</v>
       </c>
       <c r="C270" t="s">
-        <v>763</v>
+        <v>1083</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -24945,7 +28245,19 @@
         <v>607</v>
       </c>
       <c r="C271" t="s">
-        <v>607</v>
+        <v>1081</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G271" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -24956,7 +28268,19 @@
         <v>607</v>
       </c>
       <c r="C272" t="s">
-        <v>607</v>
+        <v>1081</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G272" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -24967,7 +28291,19 @@
         <v>156</v>
       </c>
       <c r="C273" t="s">
-        <v>1051</v>
+        <v>1064</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -24978,7 +28314,19 @@
         <v>92</v>
       </c>
       <c r="C274" t="s">
-        <v>1044</v>
+        <v>1056</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G274" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -24989,7 +28337,19 @@
         <v>83</v>
       </c>
       <c r="C275" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G275" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -25000,7 +28360,19 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -25011,7 +28383,19 @@
         <v>412</v>
       </c>
       <c r="C277" t="s">
-        <v>1059</v>
+        <v>1076</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -25022,7 +28406,19 @@
         <v>780</v>
       </c>
       <c r="C278" t="s">
-        <v>1065</v>
+        <v>1084</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -25033,7 +28429,19 @@
         <v>41</v>
       </c>
       <c r="C279" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -25044,7 +28452,19 @@
         <v>66</v>
       </c>
       <c r="C280" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -25055,7 +28475,19 @@
         <v>367</v>
       </c>
       <c r="C281" t="s">
-        <v>367</v>
+        <v>1075</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -25066,7 +28498,19 @@
         <v>83</v>
       </c>
       <c r="C282" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G282" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -25077,7 +28521,19 @@
         <v>109</v>
       </c>
       <c r="C283" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -25088,7 +28544,19 @@
         <v>96</v>
       </c>
       <c r="C284" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -25099,7 +28567,19 @@
         <v>191</v>
       </c>
       <c r="C285" t="s">
-        <v>1053</v>
+        <v>1067</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -25110,7 +28590,19 @@
         <v>122</v>
       </c>
       <c r="C286" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -25121,7 +28613,19 @@
         <v>797</v>
       </c>
       <c r="C287" t="s">
-        <v>1066</v>
+        <v>1085</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H287" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -25132,7 +28636,19 @@
         <v>92</v>
       </c>
       <c r="C288" t="s">
-        <v>1044</v>
+        <v>1056</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -25143,7 +28659,19 @@
         <v>83</v>
       </c>
       <c r="C289" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -25154,7 +28682,19 @@
         <v>122</v>
       </c>
       <c r="C290" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -25165,7 +28705,19 @@
         <v>122</v>
       </c>
       <c r="C291" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -25176,7 +28728,19 @@
         <v>607</v>
       </c>
       <c r="C292" t="s">
-        <v>607</v>
+        <v>1081</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -25187,7 +28751,19 @@
         <v>651</v>
       </c>
       <c r="C293" t="s">
-        <v>1064</v>
+        <v>1082</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -25198,7 +28774,19 @@
         <v>210</v>
       </c>
       <c r="C294" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -25209,7 +28797,19 @@
         <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>1058</v>
+        <v>1074</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -25220,7 +28820,19 @@
         <v>83</v>
       </c>
       <c r="C296" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -25231,7 +28843,19 @@
         <v>207</v>
       </c>
       <c r="C297" t="s">
-        <v>1055</v>
+        <v>1069</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -25242,7 +28866,19 @@
         <v>36</v>
       </c>
       <c r="C298" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -25253,7 +28889,19 @@
         <v>41</v>
       </c>
       <c r="C299" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -25264,7 +28912,19 @@
         <v>122</v>
       </c>
       <c r="C300" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -25275,7 +28935,19 @@
         <v>96</v>
       </c>
       <c r="C301" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -25286,7 +28958,19 @@
         <v>66</v>
       </c>
       <c r="C302" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -25297,7 +28981,19 @@
         <v>122</v>
       </c>
       <c r="C303" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G303" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -25308,7 +29004,19 @@
         <v>50</v>
       </c>
       <c r="C304" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G304" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -25319,7 +29027,19 @@
         <v>833</v>
       </c>
       <c r="C305" t="s">
-        <v>1067</v>
+        <v>1086</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -25330,7 +29050,19 @@
         <v>96</v>
       </c>
       <c r="C306" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -25341,7 +29073,19 @@
         <v>412</v>
       </c>
       <c r="C307" t="s">
-        <v>1059</v>
+        <v>1076</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G307" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -25352,7 +29096,19 @@
         <v>83</v>
       </c>
       <c r="C308" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -25363,7 +29119,19 @@
         <v>210</v>
       </c>
       <c r="C309" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G309" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -25374,7 +29142,19 @@
         <v>45</v>
       </c>
       <c r="C310" t="s">
-        <v>1040</v>
+        <v>1051</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H310" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -25385,7 +29165,19 @@
         <v>66</v>
       </c>
       <c r="C311" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -25396,7 +29188,19 @@
         <v>21</v>
       </c>
       <c r="C312" t="s">
-        <v>21</v>
+        <v>1046</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G312" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H312" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -25407,7 +29211,19 @@
         <v>50</v>
       </c>
       <c r="C313" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H313" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -25418,7 +29234,19 @@
         <v>83</v>
       </c>
       <c r="C314" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H314" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -25429,7 +29257,19 @@
         <v>83</v>
       </c>
       <c r="C315" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G315" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H315" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -25440,7 +29280,19 @@
         <v>66</v>
       </c>
       <c r="C316" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -25451,7 +29303,19 @@
         <v>83</v>
       </c>
       <c r="C317" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H317" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -25462,7 +29326,19 @@
         <v>96</v>
       </c>
       <c r="C318" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -25473,7 +29349,19 @@
         <v>50</v>
       </c>
       <c r="C319" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -25484,7 +29372,19 @@
         <v>41</v>
       </c>
       <c r="C320" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -25495,7 +29395,19 @@
         <v>50</v>
       </c>
       <c r="C321" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -25506,7 +29418,19 @@
         <v>339</v>
       </c>
       <c r="C322" t="s">
-        <v>1058</v>
+        <v>1074</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H322" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -25517,7 +29441,19 @@
         <v>83</v>
       </c>
       <c r="C323" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H323" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -25528,7 +29464,19 @@
         <v>367</v>
       </c>
       <c r="C324" t="s">
-        <v>367</v>
+        <v>1075</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -25539,7 +29487,19 @@
         <v>96</v>
       </c>
       <c r="C325" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H325" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -25550,7 +29510,19 @@
         <v>122</v>
       </c>
       <c r="C326" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H326" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -25561,7 +29533,19 @@
         <v>874</v>
       </c>
       <c r="C327" t="s">
-        <v>1068</v>
+        <v>1087</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H327" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -25572,7 +29556,19 @@
         <v>41</v>
       </c>
       <c r="C328" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -25583,7 +29579,19 @@
         <v>412</v>
       </c>
       <c r="C329" t="s">
-        <v>1059</v>
+        <v>1076</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -25594,7 +29602,19 @@
         <v>191</v>
       </c>
       <c r="C330" t="s">
-        <v>1053</v>
+        <v>1067</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -25605,7 +29625,19 @@
         <v>172</v>
       </c>
       <c r="C331" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -25616,7 +29648,19 @@
         <v>50</v>
       </c>
       <c r="C332" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -25627,7 +29671,19 @@
         <v>122</v>
       </c>
       <c r="C333" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -25638,7 +29694,19 @@
         <v>50</v>
       </c>
       <c r="C334" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -25649,7 +29717,19 @@
         <v>83</v>
       </c>
       <c r="C335" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -25660,7 +29740,19 @@
         <v>96</v>
       </c>
       <c r="C336" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -25671,7 +29763,19 @@
         <v>203</v>
       </c>
       <c r="C337" t="s">
-        <v>1054</v>
+        <v>1068</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H337" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -25682,7 +29786,19 @@
         <v>191</v>
       </c>
       <c r="C338" t="s">
-        <v>1053</v>
+        <v>1067</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -25693,7 +29809,19 @@
         <v>83</v>
       </c>
       <c r="C339" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H339" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -25704,7 +29832,19 @@
         <v>96</v>
       </c>
       <c r="C340" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -25715,7 +29855,19 @@
         <v>122</v>
       </c>
       <c r="C341" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H341" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -25726,7 +29878,19 @@
         <v>96</v>
       </c>
       <c r="C342" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -25737,7 +29901,19 @@
         <v>122</v>
       </c>
       <c r="C343" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H343" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -25748,7 +29924,19 @@
         <v>50</v>
       </c>
       <c r="C344" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H344" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -25759,7 +29947,19 @@
         <v>96</v>
       </c>
       <c r="C345" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H345" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -25770,7 +29970,19 @@
         <v>41</v>
       </c>
       <c r="C346" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H346" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -25781,7 +29993,19 @@
         <v>172</v>
       </c>
       <c r="C347" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H347" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -25792,7 +30016,19 @@
         <v>915</v>
       </c>
       <c r="C348" t="s">
-        <v>1069</v>
+        <v>1088</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -25803,7 +30039,19 @@
         <v>104</v>
       </c>
       <c r="C349" t="s">
-        <v>1045</v>
+        <v>1058</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H349" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -25814,7 +30062,19 @@
         <v>50</v>
       </c>
       <c r="C350" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G350" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H350" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -25825,7 +30085,19 @@
         <v>253</v>
       </c>
       <c r="C351" t="s">
-        <v>1057</v>
+        <v>1072</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G351" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H351" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -25836,7 +30108,19 @@
         <v>36</v>
       </c>
       <c r="C352" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G352" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -25847,7 +30131,19 @@
         <v>253</v>
       </c>
       <c r="C353" t="s">
-        <v>1057</v>
+        <v>1072</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H353" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -25858,7 +30154,19 @@
         <v>210</v>
       </c>
       <c r="C354" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H354" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -25869,7 +30177,19 @@
         <v>83</v>
       </c>
       <c r="C355" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H355" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -25880,7 +30200,19 @@
         <v>526</v>
       </c>
       <c r="C356" t="s">
-        <v>1061</v>
+        <v>1078</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G356" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H356" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -25891,7 +30223,19 @@
         <v>96</v>
       </c>
       <c r="C357" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G357" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H357" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -25902,7 +30246,19 @@
         <v>339</v>
       </c>
       <c r="C358" t="s">
-        <v>1058</v>
+        <v>1074</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G358" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H358" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -25913,7 +30269,19 @@
         <v>104</v>
       </c>
       <c r="C359" t="s">
-        <v>1045</v>
+        <v>1058</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G359" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H359" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -25924,7 +30292,19 @@
         <v>50</v>
       </c>
       <c r="C360" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G360" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H360" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -25935,7 +30315,19 @@
         <v>122</v>
       </c>
       <c r="C361" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H361" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -25946,7 +30338,19 @@
         <v>339</v>
       </c>
       <c r="C362" t="s">
-        <v>1058</v>
+        <v>1074</v>
+      </c>
+      <c r="E362" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H362" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -25957,7 +30361,19 @@
         <v>109</v>
       </c>
       <c r="C363" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E363" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G363" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H363" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -25968,7 +30384,19 @@
         <v>833</v>
       </c>
       <c r="C364" t="s">
-        <v>1067</v>
+        <v>1086</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F364" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H364" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -25979,7 +30407,19 @@
         <v>36</v>
       </c>
       <c r="C365" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G365" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H365" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -25990,7 +30430,19 @@
         <v>96</v>
       </c>
       <c r="C366" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F366" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G366" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H366" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -26001,7 +30453,19 @@
         <v>412</v>
       </c>
       <c r="C367" t="s">
-        <v>1059</v>
+        <v>1076</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H367" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -26012,7 +30476,19 @@
         <v>104</v>
       </c>
       <c r="C368" t="s">
-        <v>1045</v>
+        <v>1058</v>
+      </c>
+      <c r="E368" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H368" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -26023,7 +30499,19 @@
         <v>41</v>
       </c>
       <c r="C369" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E369" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F369" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -26034,7 +30522,19 @@
         <v>83</v>
       </c>
       <c r="C370" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H370" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -26045,7 +30545,19 @@
         <v>50</v>
       </c>
       <c r="C371" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F371" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H371" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -26056,7 +30568,19 @@
         <v>253</v>
       </c>
       <c r="C372" t="s">
-        <v>1057</v>
+        <v>1072</v>
+      </c>
+      <c r="E372" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -26067,7 +30591,19 @@
         <v>83</v>
       </c>
       <c r="C373" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H373" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -26078,7 +30614,19 @@
         <v>36</v>
       </c>
       <c r="C374" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H374" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -26089,7 +30637,19 @@
         <v>36</v>
       </c>
       <c r="C375" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H375" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -26100,7 +30660,19 @@
         <v>96</v>
       </c>
       <c r="C376" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H376" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -26111,7 +30683,19 @@
         <v>50</v>
       </c>
       <c r="C377" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H377" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -26122,7 +30706,19 @@
         <v>109</v>
       </c>
       <c r="C378" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H378" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -26133,7 +30729,19 @@
         <v>66</v>
       </c>
       <c r="C379" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H379" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -26144,7 +30752,19 @@
         <v>36</v>
       </c>
       <c r="C380" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H380" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -26155,7 +30775,19 @@
         <v>207</v>
       </c>
       <c r="C381" t="s">
-        <v>1055</v>
+        <v>1069</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H381" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -26166,7 +30798,19 @@
         <v>172</v>
       </c>
       <c r="C382" t="s">
-        <v>172</v>
+        <v>1066</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H382" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -26177,7 +30821,19 @@
         <v>253</v>
       </c>
       <c r="C383" t="s">
-        <v>1057</v>
+        <v>1072</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H383" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -26188,7 +30844,19 @@
         <v>83</v>
       </c>
       <c r="C384" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H384" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -26199,7 +30867,19 @@
         <v>41</v>
       </c>
       <c r="C385" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H385" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -26210,7 +30890,19 @@
         <v>122</v>
       </c>
       <c r="C386" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H386" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -26221,7 +30913,19 @@
         <v>83</v>
       </c>
       <c r="C387" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H387" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -26232,7 +30936,19 @@
         <v>109</v>
       </c>
       <c r="C388" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H388" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -26243,7 +30959,19 @@
         <v>41</v>
       </c>
       <c r="C389" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F389" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H389" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -26254,7 +30982,19 @@
         <v>226</v>
       </c>
       <c r="C390" t="s">
-        <v>226</v>
+        <v>1071</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H390" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -26265,7 +31005,19 @@
         <v>21</v>
       </c>
       <c r="C391" t="s">
-        <v>21</v>
+        <v>1046</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H391" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -26276,7 +31028,19 @@
         <v>41</v>
       </c>
       <c r="C392" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F392" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H392" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -26287,7 +31051,19 @@
         <v>83</v>
       </c>
       <c r="C393" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H393" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -26298,7 +31074,19 @@
         <v>50</v>
       </c>
       <c r="C394" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H394" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -26309,7 +31097,19 @@
         <v>50</v>
       </c>
       <c r="C395" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H395" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -26320,7 +31120,19 @@
         <v>83</v>
       </c>
       <c r="C396" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G396" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H396" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -26331,7 +31143,19 @@
         <v>83</v>
       </c>
       <c r="C397" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H397" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -26342,7 +31166,19 @@
         <v>763</v>
       </c>
       <c r="C398" t="s">
-        <v>763</v>
+        <v>1083</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H398" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -26353,7 +31189,19 @@
         <v>210</v>
       </c>
       <c r="C399" t="s">
-        <v>1056</v>
+        <v>1070</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G399" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H399" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -26364,7 +31212,19 @@
         <v>167</v>
       </c>
       <c r="C400" t="s">
-        <v>1052</v>
+        <v>1065</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H400" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -26375,7 +31235,19 @@
         <v>92</v>
       </c>
       <c r="C401" t="s">
-        <v>1044</v>
+        <v>1056</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H401" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -26386,7 +31258,19 @@
         <v>41</v>
       </c>
       <c r="C402" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H402" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -26397,7 +31281,19 @@
         <v>96</v>
       </c>
       <c r="C403" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H403" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -26408,7 +31304,19 @@
         <v>41</v>
       </c>
       <c r="C404" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H404" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -26419,7 +31327,19 @@
         <v>96</v>
       </c>
       <c r="C405" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H405" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -26430,7 +31350,19 @@
         <v>41</v>
       </c>
       <c r="C406" t="s">
-        <v>1039</v>
+        <v>1050</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H406" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -26441,7 +31373,19 @@
         <v>50</v>
       </c>
       <c r="C407" t="s">
-        <v>1041</v>
+        <v>1052</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H407" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -26452,7 +31396,19 @@
         <v>83</v>
       </c>
       <c r="C408" t="s">
-        <v>1043</v>
+        <v>1055</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F408" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H408" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -26463,7 +31419,19 @@
         <v>96</v>
       </c>
       <c r="C409" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H409" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -26474,7 +31442,19 @@
         <v>96</v>
       </c>
       <c r="C410" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H410" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -26485,7 +31465,19 @@
         <v>651</v>
       </c>
       <c r="C411" t="s">
-        <v>1064</v>
+        <v>1082</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H411" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -26496,7 +31488,19 @@
         <v>66</v>
       </c>
       <c r="C412" t="s">
-        <v>66</v>
+        <v>1054</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H412" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -26507,7 +31511,19 @@
         <v>36</v>
       </c>
       <c r="C413" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H413" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -26518,7 +31534,19 @@
         <v>96</v>
       </c>
       <c r="C414" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H414" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -26529,7 +31557,19 @@
         <v>96</v>
       </c>
       <c r="C415" t="s">
-        <v>96</v>
+        <v>1057</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H415" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -26540,7 +31580,19 @@
         <v>109</v>
       </c>
       <c r="C416" t="s">
-        <v>1046</v>
+        <v>1059</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G416" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H416" t="s">
+        <v>1047</v>
       </c>
     </row>
   </sheetData>

--- a/specs1.xlsx
+++ b/specs1.xlsx
@@ -10,7 +10,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specs1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="output" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">output!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
@@ -22006,7 +22008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R416"/>
+  <dimension ref="A1:H416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22014,7 +22016,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>1038</v>
       </c>
@@ -22039,18 +22041,8 @@
       <c r="H1" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="I1" s="8" t="n"/>
-      <c r="J1" s="8" t="n"/>
-      <c r="K1" s="8" t="n"/>
-      <c r="L1" s="8" t="n"/>
-      <c r="M1" s="8" t="n"/>
-      <c r="N1" s="8" t="n"/>
-      <c r="O1" s="8" t="n"/>
-      <c r="P1" s="8" t="n"/>
-      <c r="Q1" s="8" t="n"/>
-      <c r="R1" s="8" t="n"/>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -22073,7 +22065,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -22096,7 +22088,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -22119,7 +22111,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -22142,7 +22134,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -22165,7 +22157,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -22188,7 +22180,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -22211,7 +22203,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -22234,7 +22226,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -22257,7 +22249,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -22280,7 +22272,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -22303,7 +22295,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -22326,7 +22318,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -22349,7 +22341,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -22372,7 +22364,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -22395,7 +22387,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -22418,7 +22410,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -22441,7 +22433,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -22464,7 +22456,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -22487,7 +22479,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -22510,7 +22502,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -22533,7 +22525,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -22556,7 +22548,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -22579,7 +22571,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -22602,7 +22594,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -22625,7 +22617,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -22648,7 +22640,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -22671,7 +22663,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -22694,7 +22686,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -22717,7 +22709,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -22740,7 +22732,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -22763,7 +22755,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -22786,7 +22778,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -22809,7 +22801,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -22832,7 +22824,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -22855,7 +22847,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -22878,7 +22870,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -22901,7 +22893,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -22924,7 +22916,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -22947,7 +22939,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -22970,7 +22962,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -22993,7 +22985,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -23016,7 +23008,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -23039,7 +23031,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -23062,7 +23054,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -23085,7 +23077,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -23108,7 +23100,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -23131,7 +23123,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -23154,7 +23146,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -23177,7 +23169,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -23200,7 +23192,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -23223,7 +23215,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -23246,7 +23238,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -23269,7 +23261,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -23292,7 +23284,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -23315,7 +23307,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -23338,7 +23330,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -23361,7 +23353,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -23384,7 +23376,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -23407,7 +23399,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -23430,7 +23422,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -23453,7 +23445,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -23476,7 +23468,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -23499,7 +23491,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -23522,7 +23514,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -23545,7 +23537,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -23568,7 +23560,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -23591,7 +23583,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -23614,7 +23606,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -23637,7 +23629,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -23660,7 +23652,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -23683,7 +23675,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -23706,7 +23698,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -23729,7 +23721,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -23752,7 +23744,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -23775,7 +23767,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -23798,7 +23790,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -23821,7 +23813,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -23844,7 +23836,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -23867,7 +23859,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -23890,7 +23882,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -23913,7 +23905,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -23936,7 +23928,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -23959,7 +23951,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -23982,7 +23974,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -24005,7 +23997,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -24028,7 +24020,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -24051,7 +24043,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -24074,7 +24066,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -24097,7 +24089,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -24120,7 +24112,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -24143,7 +24135,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -24166,7 +24158,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -24189,7 +24181,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -24212,7 +24204,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -24235,7 +24227,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -24258,7 +24250,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -24281,7 +24273,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -24304,7 +24296,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -24327,7 +24319,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -24350,7 +24342,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -24373,7 +24365,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -24396,7 +24388,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -24419,7 +24411,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -24442,7 +24434,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -24465,7 +24457,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -24488,7 +24480,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -24511,7 +24503,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -24534,7 +24526,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -24557,7 +24549,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -24580,7 +24572,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -24603,7 +24595,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -24626,7 +24618,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -24649,7 +24641,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -24672,7 +24664,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -24695,7 +24687,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -24718,7 +24710,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -24741,7 +24733,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -24764,7 +24756,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -24787,7 +24779,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -24810,7 +24802,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -24833,7 +24825,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -24856,7 +24848,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -24879,7 +24871,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -24902,7 +24894,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -24925,7 +24917,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -24948,7 +24940,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -24971,7 +24963,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -24994,7 +24986,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -25017,7 +25009,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -25040,7 +25032,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -25063,7 +25055,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -25086,7 +25078,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -25109,7 +25101,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -25132,7 +25124,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -25155,7 +25147,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -25178,7 +25170,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -25201,7 +25193,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -25224,7 +25216,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -25247,7 +25239,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -25270,7 +25262,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -25293,7 +25285,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -25316,7 +25308,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -25339,7 +25331,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -25362,7 +25354,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -25385,7 +25377,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -25408,7 +25400,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -25431,7 +25423,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -25454,7 +25446,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -25477,7 +25469,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -25500,7 +25492,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -25523,7 +25515,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -25546,7 +25538,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -25569,7 +25561,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -25592,7 +25584,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -25615,7 +25607,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -25638,7 +25630,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -25661,7 +25653,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -25684,7 +25676,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -25707,7 +25699,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -25730,7 +25722,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -25753,7 +25745,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -25776,7 +25768,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -25799,7 +25791,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -25822,7 +25814,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -25845,7 +25837,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -25868,7 +25860,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -25891,7 +25883,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -25914,7 +25906,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -25937,7 +25929,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -25960,7 +25952,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -25983,7 +25975,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -26006,7 +25998,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -26029,7 +26021,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -26052,7 +26044,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -26075,7 +26067,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -26098,7 +26090,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -26121,7 +26113,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -26144,7 +26136,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -26167,7 +26159,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -26190,7 +26182,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -26213,7 +26205,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -26236,7 +26228,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -26259,7 +26251,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -26282,7 +26274,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -26305,7 +26297,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -26328,7 +26320,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -26351,7 +26343,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -26374,7 +26366,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -26397,7 +26389,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>20</v>
       </c>
@@ -26420,7 +26412,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -26443,7 +26435,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>20</v>
       </c>
@@ -26466,7 +26458,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>20</v>
       </c>
@@ -26489,7 +26481,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>20</v>
       </c>
@@ -26512,7 +26504,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>20</v>
       </c>
@@ -26535,7 +26527,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -26558,7 +26550,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -26581,7 +26573,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -26604,7 +26596,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -26627,7 +26619,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -26650,7 +26642,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -26673,7 +26665,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -26696,7 +26688,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>20</v>
       </c>
@@ -26719,7 +26711,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -26742,7 +26734,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -26765,7 +26757,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>20</v>
       </c>
@@ -26788,7 +26780,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>20</v>
       </c>
@@ -26811,7 +26803,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -26834,7 +26826,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -26857,7 +26849,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>20</v>
       </c>
@@ -26880,7 +26872,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>20</v>
       </c>
@@ -26903,7 +26895,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -26926,7 +26918,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -26949,7 +26941,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -26972,7 +26964,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -26995,7 +26987,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -27018,7 +27010,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -27041,7 +27033,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -27064,7 +27056,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -27087,7 +27079,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -27110,7 +27102,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -27133,7 +27125,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -27156,7 +27148,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -27179,7 +27171,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -27202,7 +27194,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -27225,7 +27217,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -27248,7 +27240,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -27271,7 +27263,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -27294,7 +27286,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>20</v>
       </c>
@@ -27317,7 +27309,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>20</v>
       </c>
@@ -27340,7 +27332,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>20</v>
       </c>
@@ -27363,7 +27355,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>20</v>
       </c>
@@ -27386,7 +27378,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -27409,7 +27401,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>20</v>
       </c>
@@ -27432,7 +27424,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>20</v>
       </c>
@@ -27455,7 +27447,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>20</v>
       </c>
@@ -27478,7 +27470,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -27501,7 +27493,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>20</v>
       </c>
@@ -27524,7 +27516,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -27547,7 +27539,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -27570,7 +27562,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>20</v>
       </c>
@@ -27593,7 +27585,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -27616,7 +27608,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>20</v>
       </c>
@@ -27639,7 +27631,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -27662,7 +27654,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -27685,7 +27677,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -27708,7 +27700,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>20</v>
       </c>
@@ -27731,7 +27723,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -27754,7 +27746,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -27777,7 +27769,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -27800,7 +27792,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -27823,7 +27815,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -27846,7 +27838,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -27869,7 +27861,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -27892,7 +27884,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -27915,7 +27907,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -27938,7 +27930,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -27961,7 +27953,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -27984,7 +27976,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -28007,7 +27999,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -28030,7 +28022,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -28053,7 +28045,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -28076,7 +28068,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>20</v>
       </c>
@@ -28099,7 +28091,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>20</v>
       </c>
@@ -28122,7 +28114,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>20</v>
       </c>
@@ -28145,7 +28137,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>20</v>
       </c>
@@ -28168,7 +28160,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>20</v>
       </c>
@@ -28191,7 +28183,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>20</v>
       </c>
@@ -28214,7 +28206,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>20</v>
       </c>
@@ -28237,7 +28229,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>20</v>
       </c>
@@ -28260,7 +28252,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>20</v>
       </c>
@@ -28283,7 +28275,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>20</v>
       </c>
@@ -28306,7 +28298,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -28329,7 +28321,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>20</v>
       </c>
@@ -28352,7 +28344,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>20</v>
       </c>
@@ -28375,7 +28367,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -28398,7 +28390,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -28421,7 +28413,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -28444,7 +28436,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -28467,7 +28459,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>20</v>
       </c>
@@ -28490,7 +28482,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>20</v>
       </c>
@@ -28513,7 +28505,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>20</v>
       </c>
@@ -28536,7 +28528,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -28559,7 +28551,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>20</v>
       </c>
@@ -28582,7 +28574,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>20</v>
       </c>
@@ -28605,7 +28597,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="287" spans="1:18">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>20</v>
       </c>
@@ -28628,7 +28620,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>20</v>
       </c>
@@ -28651,7 +28643,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>20</v>
       </c>
@@ -28674,7 +28666,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>20</v>
       </c>
@@ -28697,7 +28689,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="291" spans="1:18">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>20</v>
       </c>
@@ -28720,7 +28712,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>20</v>
       </c>
@@ -28743,7 +28735,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="293" spans="1:18">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -28766,7 +28758,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>20</v>
       </c>
@@ -28789,7 +28781,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -28812,7 +28804,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="296" spans="1:18">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -28835,7 +28827,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="297" spans="1:18">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -28858,7 +28850,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="298" spans="1:18">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -28881,7 +28873,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="299" spans="1:18">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -28904,7 +28896,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="300" spans="1:18">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -28927,7 +28919,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -28950,7 +28942,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="302" spans="1:18">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -28973,7 +28965,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -28996,7 +28988,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -29019,7 +29011,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="305" spans="1:18">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -29042,7 +29034,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="306" spans="1:18">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -29065,7 +29057,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="307" spans="1:18">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -29088,7 +29080,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="308" spans="1:18">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -29111,7 +29103,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="309" spans="1:18">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -29134,7 +29126,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="310" spans="1:18">
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -29157,7 +29149,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="311" spans="1:18">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -29180,7 +29172,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="312" spans="1:18">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -29203,7 +29195,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="313" spans="1:18">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -29226,7 +29218,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="314" spans="1:18">
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -29249,7 +29241,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="315" spans="1:18">
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>20</v>
       </c>
@@ -29272,7 +29264,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="316" spans="1:18">
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -29295,7 +29287,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="317" spans="1:18">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>20</v>
       </c>
@@ -29318,7 +29310,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="318" spans="1:18">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>20</v>
       </c>
@@ -29341,7 +29333,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="319" spans="1:18">
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
         <v>20</v>
       </c>
@@ -29364,7 +29356,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="320" spans="1:18">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>20</v>
       </c>
@@ -29387,7 +29379,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="321" spans="1:18">
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>20</v>
       </c>
@@ -29410,7 +29402,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="322" spans="1:18">
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>20</v>
       </c>
@@ -29433,7 +29425,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="323" spans="1:18">
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>20</v>
       </c>
@@ -29456,7 +29448,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="324" spans="1:18">
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>20</v>
       </c>
@@ -29479,7 +29471,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="325" spans="1:18">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>20</v>
       </c>
@@ -29502,7 +29494,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="326" spans="1:18">
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>20</v>
       </c>
@@ -29525,7 +29517,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="327" spans="1:18">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>20</v>
       </c>
@@ -29548,7 +29540,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="328" spans="1:18">
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>20</v>
       </c>
@@ -29571,7 +29563,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="329" spans="1:18">
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>20</v>
       </c>
@@ -29594,7 +29586,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="330" spans="1:18">
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>20</v>
       </c>
@@ -29617,7 +29609,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="331" spans="1:18">
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>20</v>
       </c>
@@ -29640,7 +29632,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="332" spans="1:18">
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>20</v>
       </c>
@@ -29663,7 +29655,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="333" spans="1:18">
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>20</v>
       </c>
@@ -29686,7 +29678,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="334" spans="1:18">
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>20</v>
       </c>
@@ -29709,7 +29701,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="335" spans="1:18">
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>20</v>
       </c>
@@ -29732,7 +29724,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="336" spans="1:18">
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>20</v>
       </c>
@@ -29755,7 +29747,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="337" spans="1:18">
+    <row r="337" spans="1:8">
       <c r="A337" t="s">
         <v>20</v>
       </c>
@@ -29778,7 +29770,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="338" spans="1:18">
+    <row r="338" spans="1:8">
       <c r="A338" t="s">
         <v>20</v>
       </c>
@@ -29801,7 +29793,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="339" spans="1:18">
+    <row r="339" spans="1:8">
       <c r="A339" t="s">
         <v>20</v>
       </c>
@@ -29824,7 +29816,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="340" spans="1:18">
+    <row r="340" spans="1:8">
       <c r="A340" t="s">
         <v>20</v>
       </c>
@@ -29847,7 +29839,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="341" spans="1:18">
+    <row r="341" spans="1:8">
       <c r="A341" t="s">
         <v>20</v>
       </c>
@@ -29870,7 +29862,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="342" spans="1:18">
+    <row r="342" spans="1:8">
       <c r="A342" t="s">
         <v>20</v>
       </c>
@@ -29893,7 +29885,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="343" spans="1:18">
+    <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>20</v>
       </c>
@@ -29916,7 +29908,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="344" spans="1:18">
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>20</v>
       </c>
@@ -29939,7 +29931,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="345" spans="1:18">
+    <row r="345" spans="1:8">
       <c r="A345" t="s">
         <v>20</v>
       </c>
@@ -29962,7 +29954,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="346" spans="1:18">
+    <row r="346" spans="1:8">
       <c r="A346" t="s">
         <v>20</v>
       </c>
@@ -29985,7 +29977,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="347" spans="1:18">
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>20</v>
       </c>
@@ -30008,7 +30000,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="348" spans="1:18">
+    <row r="348" spans="1:8">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -30031,7 +30023,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="349" spans="1:18">
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>20</v>
       </c>
@@ -30054,7 +30046,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="350" spans="1:18">
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>20</v>
       </c>
@@ -30077,7 +30069,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="351" spans="1:18">
+    <row r="351" spans="1:8">
       <c r="A351" t="s">
         <v>20</v>
       </c>
@@ -30100,7 +30092,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="352" spans="1:18">
+    <row r="352" spans="1:8">
       <c r="A352" t="s">
         <v>20</v>
       </c>
@@ -30123,7 +30115,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>20</v>
       </c>
@@ -30146,7 +30138,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:8">
       <c r="A354" t="s">
         <v>20</v>
       </c>
@@ -30169,7 +30161,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:8">
       <c r="A355" t="s">
         <v>20</v>
       </c>
@@ -30192,7 +30184,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:8">
       <c r="A356" t="s">
         <v>20</v>
       </c>
@@ -30215,7 +30207,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:8">
       <c r="A357" t="s">
         <v>20</v>
       </c>
@@ -30238,7 +30230,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:8">
       <c r="A358" t="s">
         <v>20</v>
       </c>
@@ -30261,7 +30253,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:8">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -30284,7 +30276,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="360" spans="1:18">
+    <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -30307,7 +30299,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="361" spans="1:18">
+    <row r="361" spans="1:8">
       <c r="A361" t="s">
         <v>20</v>
       </c>
@@ -30330,7 +30322,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="362" spans="1:18">
+    <row r="362" spans="1:8">
       <c r="A362" t="s">
         <v>20</v>
       </c>
@@ -30353,7 +30345,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:8">
       <c r="A363" t="s">
         <v>20</v>
       </c>
@@ -30376,7 +30368,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:8">
       <c r="A364" t="s">
         <v>20</v>
       </c>
@@ -30399,7 +30391,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>20</v>
       </c>
@@ -30422,7 +30414,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:8">
       <c r="A366" t="s">
         <v>20</v>
       </c>
@@ -30445,7 +30437,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="367" spans="1:18">
+    <row r="367" spans="1:8">
       <c r="A367" t="s">
         <v>20</v>
       </c>
@@ -30468,7 +30460,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="368" spans="1:18">
+    <row r="368" spans="1:8">
       <c r="A368" t="s">
         <v>20</v>
       </c>
@@ -30491,7 +30483,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="369" spans="1:18">
+    <row r="369" spans="1:8">
       <c r="A369" t="s">
         <v>20</v>
       </c>
@@ -30514,7 +30506,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="370" spans="1:18">
+    <row r="370" spans="1:8">
       <c r="A370" t="s">
         <v>20</v>
       </c>
@@ -30537,7 +30529,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="371" spans="1:18">
+    <row r="371" spans="1:8">
       <c r="A371" t="s">
         <v>20</v>
       </c>
@@ -30560,7 +30552,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="372" spans="1:18">
+    <row r="372" spans="1:8">
       <c r="A372" t="s">
         <v>20</v>
       </c>
@@ -30583,7 +30575,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="373" spans="1:18">
+    <row r="373" spans="1:8">
       <c r="A373" t="s">
         <v>20</v>
       </c>
@@ -30606,7 +30598,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="374" spans="1:18">
+    <row r="374" spans="1:8">
       <c r="A374" t="s">
         <v>20</v>
       </c>
@@ -30629,7 +30621,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="375" spans="1:18">
+    <row r="375" spans="1:8">
       <c r="A375" t="s">
         <v>20</v>
       </c>
@@ -30652,7 +30644,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="376" spans="1:18">
+    <row r="376" spans="1:8">
       <c r="A376" t="s">
         <v>20</v>
       </c>
@@ -30675,7 +30667,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="377" spans="1:18">
+    <row r="377" spans="1:8">
       <c r="A377" t="s">
         <v>20</v>
       </c>
@@ -30698,7 +30690,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="378" spans="1:18">
+    <row r="378" spans="1:8">
       <c r="A378" t="s">
         <v>20</v>
       </c>
@@ -30721,7 +30713,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="379" spans="1:18">
+    <row r="379" spans="1:8">
       <c r="A379" t="s">
         <v>20</v>
       </c>
@@ -30744,7 +30736,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="380" spans="1:18">
+    <row r="380" spans="1:8">
       <c r="A380" t="s">
         <v>20</v>
       </c>
@@ -30767,7 +30759,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="381" spans="1:18">
+    <row r="381" spans="1:8">
       <c r="A381" t="s">
         <v>20</v>
       </c>
@@ -30790,7 +30782,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="382" spans="1:18">
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>20</v>
       </c>
@@ -30813,7 +30805,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="383" spans="1:18">
+    <row r="383" spans="1:8">
       <c r="A383" t="s">
         <v>20</v>
       </c>
@@ -30836,7 +30828,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="384" spans="1:18">
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
         <v>20</v>
       </c>
@@ -30859,7 +30851,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="385" spans="1:18">
+    <row r="385" spans="1:8">
       <c r="A385" t="s">
         <v>20</v>
       </c>
@@ -30882,7 +30874,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="386" spans="1:18">
+    <row r="386" spans="1:8">
       <c r="A386" t="s">
         <v>20</v>
       </c>
@@ -30905,7 +30897,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="387" spans="1:18">
+    <row r="387" spans="1:8">
       <c r="A387" t="s">
         <v>20</v>
       </c>
@@ -30928,7 +30920,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="388" spans="1:18">
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
         <v>20</v>
       </c>
@@ -30951,7 +30943,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="389" spans="1:18">
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
         <v>20</v>
       </c>
@@ -30974,7 +30966,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="390" spans="1:18">
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
         <v>20</v>
       </c>
@@ -30997,7 +30989,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="391" spans="1:18">
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
         <v>20</v>
       </c>
@@ -31020,7 +31012,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="392" spans="1:18">
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
         <v>20</v>
       </c>
@@ -31043,7 +31035,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="393" spans="1:18">
+    <row r="393" spans="1:8">
       <c r="A393" t="s">
         <v>20</v>
       </c>
@@ -31066,7 +31058,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="394" spans="1:18">
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
         <v>20</v>
       </c>
@@ -31089,7 +31081,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="395" spans="1:18">
+    <row r="395" spans="1:8">
       <c r="A395" t="s">
         <v>20</v>
       </c>
@@ -31112,7 +31104,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="396" spans="1:18">
+    <row r="396" spans="1:8">
       <c r="A396" t="s">
         <v>20</v>
       </c>
@@ -31135,7 +31127,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="397" spans="1:18">
+    <row r="397" spans="1:8">
       <c r="A397" t="s">
         <v>20</v>
       </c>
@@ -31158,7 +31150,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="398" spans="1:18">
+    <row r="398" spans="1:8">
       <c r="A398" t="s">
         <v>20</v>
       </c>
@@ -31181,7 +31173,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="399" spans="1:18">
+    <row r="399" spans="1:8">
       <c r="A399" t="s">
         <v>20</v>
       </c>
@@ -31204,7 +31196,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="400" spans="1:18">
+    <row r="400" spans="1:8">
       <c r="A400" t="s">
         <v>20</v>
       </c>
@@ -31227,7 +31219,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="401" spans="1:18">
+    <row r="401" spans="1:8">
       <c r="A401" t="s">
         <v>20</v>
       </c>
@@ -31250,7 +31242,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="402" spans="1:18">
+    <row r="402" spans="1:8">
       <c r="A402" t="s">
         <v>20</v>
       </c>
@@ -31273,7 +31265,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="403" spans="1:18">
+    <row r="403" spans="1:8">
       <c r="A403" t="s">
         <v>20</v>
       </c>
@@ -31296,7 +31288,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="404" spans="1:18">
+    <row r="404" spans="1:8">
       <c r="A404" t="s">
         <v>20</v>
       </c>
@@ -31319,7 +31311,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="405" spans="1:18">
+    <row r="405" spans="1:8">
       <c r="A405" t="s">
         <v>20</v>
       </c>
@@ -31342,7 +31334,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="406" spans="1:18">
+    <row r="406" spans="1:8">
       <c r="A406" t="s">
         <v>20</v>
       </c>
@@ -31365,7 +31357,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="407" spans="1:18">
+    <row r="407" spans="1:8">
       <c r="A407" t="s">
         <v>20</v>
       </c>
@@ -31388,7 +31380,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="408" spans="1:18">
+    <row r="408" spans="1:8">
       <c r="A408" t="s">
         <v>20</v>
       </c>
@@ -31411,7 +31403,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="409" spans="1:18">
+    <row r="409" spans="1:8">
       <c r="A409" t="s">
         <v>20</v>
       </c>
@@ -31434,7 +31426,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="410" spans="1:18">
+    <row r="410" spans="1:8">
       <c r="A410" t="s">
         <v>20</v>
       </c>
@@ -31457,7 +31449,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="411" spans="1:18">
+    <row r="411" spans="1:8">
       <c r="A411" t="s">
         <v>20</v>
       </c>
@@ -31480,7 +31472,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="412" spans="1:18">
+    <row r="412" spans="1:8">
       <c r="A412" t="s">
         <v>20</v>
       </c>
@@ -31503,7 +31495,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="413" spans="1:18">
+    <row r="413" spans="1:8">
       <c r="A413" t="s">
         <v>20</v>
       </c>
@@ -31526,7 +31518,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="414" spans="1:18">
+    <row r="414" spans="1:8">
       <c r="A414" t="s">
         <v>20</v>
       </c>
@@ -31549,7 +31541,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="415" spans="1:18">
+    <row r="415" spans="1:8">
       <c r="A415" t="s">
         <v>20</v>
       </c>
@@ -31572,7 +31564,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="416" spans="1:18">
+    <row r="416" spans="1:8">
       <c r="A416" t="s">
         <v>20</v>
       </c>
@@ -31596,6 +31588,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/specs1.xlsx
+++ b/specs1.xlsx
@@ -19957,6 +19957,9 @@
       <c r="C18" t="s">
         <v>1054</v>
       </c>
+      <c r="D18" t="s">
+        <v>1090</v>
+      </c>
       <c r="E18" t="s">
         <v>1047</v>
       </c>
@@ -19980,6 +19983,9 @@
       <c r="C19" t="s">
         <v>1058</v>
       </c>
+      <c r="D19" t="s">
+        <v>1090</v>
+      </c>
       <c r="E19" t="s">
         <v>1047</v>
       </c>
@@ -20003,6 +20009,9 @@
       <c r="C20" t="s">
         <v>1059</v>
       </c>
+      <c r="D20" t="s">
+        <v>1090</v>
+      </c>
       <c r="E20" t="s">
         <v>1047</v>
       </c>
@@ -20026,6 +20035,7 @@
       <c r="C21" t="s">
         <v>1055</v>
       </c>
+      <c r="D21" t="s"/>
       <c r="E21" t="s">
         <v>1047</v>
       </c>
@@ -20049,6 +20059,7 @@
       <c r="C22" t="s">
         <v>1060</v>
       </c>
+      <c r="D22" t="s"/>
       <c r="E22" t="s">
         <v>1047</v>
       </c>
@@ -20072,6 +20083,9 @@
       <c r="C23" t="s">
         <v>1061</v>
       </c>
+      <c r="D23" t="s">
+        <v>1090</v>
+      </c>
       <c r="E23" t="s">
         <v>1047</v>
       </c>
@@ -20095,6 +20109,7 @@
       <c r="C24" t="s">
         <v>1055</v>
       </c>
+      <c r="D24" t="s"/>
       <c r="E24" t="s">
         <v>1047</v>
       </c>
@@ -20118,6 +20133,7 @@
       <c r="C25" t="s">
         <v>1062</v>
       </c>
+      <c r="D25" t="s"/>
       <c r="E25" t="s">
         <v>1047</v>
       </c>
@@ -20141,6 +20157,9 @@
       <c r="C26" t="s">
         <v>1061</v>
       </c>
+      <c r="D26" t="s">
+        <v>1090</v>
+      </c>
       <c r="E26" t="s">
         <v>1047</v>
       </c>
@@ -20164,6 +20183,7 @@
       <c r="C27" t="s">
         <v>1057</v>
       </c>
+      <c r="D27" t="s"/>
       <c r="E27" t="s">
         <v>1047</v>
       </c>
@@ -20187,6 +20207,7 @@
       <c r="C28" t="s">
         <v>1057</v>
       </c>
+      <c r="D28" t="s"/>
       <c r="E28" t="s">
         <v>1047</v>
       </c>
@@ -20210,6 +20231,9 @@
       <c r="C29" t="s">
         <v>1061</v>
       </c>
+      <c r="D29" t="s">
+        <v>1090</v>
+      </c>
       <c r="E29" t="s">
         <v>1047</v>
       </c>
@@ -20233,6 +20257,7 @@
       <c r="C30" t="s">
         <v>1055</v>
       </c>
+      <c r="D30" t="s"/>
       <c r="E30" t="s">
         <v>1047</v>
       </c>
@@ -20256,6 +20281,7 @@
       <c r="C31" t="s">
         <v>1063</v>
       </c>
+      <c r="D31" t="s"/>
       <c r="E31" t="s">
         <v>1047</v>
       </c>
@@ -20279,6 +20305,7 @@
       <c r="C32" t="s">
         <v>1064</v>
       </c>
+      <c r="D32" t="s"/>
       <c r="E32" t="s">
         <v>1047</v>
       </c>
@@ -20302,6 +20329,7 @@
       <c r="C33" t="s">
         <v>1055</v>
       </c>
+      <c r="D33" t="s"/>
       <c r="E33" t="s">
         <v>1047</v>
       </c>
@@ -20325,6 +20353,7 @@
       <c r="C34" t="s">
         <v>1055</v>
       </c>
+      <c r="D34" t="s"/>
       <c r="E34" t="s">
         <v>1047</v>
       </c>
@@ -20348,6 +20377,7 @@
       <c r="C35" t="s">
         <v>1065</v>
       </c>
+      <c r="D35" t="s"/>
       <c r="E35" t="s">
         <v>1047</v>
       </c>
@@ -20371,6 +20401,9 @@
       <c r="C36" t="s">
         <v>1066</v>
       </c>
+      <c r="D36" t="s">
+        <v>1089</v>
+      </c>
       <c r="E36" t="s">
         <v>1047</v>
       </c>
@@ -20394,6 +20427,7 @@
       <c r="C37" t="s">
         <v>1055</v>
       </c>
+      <c r="D37" t="s"/>
       <c r="E37" t="s">
         <v>1047</v>
       </c>
@@ -20417,6 +20451,7 @@
       <c r="C38" t="s">
         <v>1057</v>
       </c>
+      <c r="D38" t="s"/>
       <c r="E38" t="s">
         <v>1047</v>
       </c>
@@ -20440,6 +20475,9 @@
       <c r="C39" t="s">
         <v>1052</v>
       </c>
+      <c r="D39" t="s">
+        <v>1090</v>
+      </c>
       <c r="E39" t="s">
         <v>1047</v>
       </c>
@@ -20463,6 +20501,7 @@
       <c r="C40" t="s">
         <v>1055</v>
       </c>
+      <c r="D40" t="s"/>
       <c r="E40" t="s">
         <v>1047</v>
       </c>
@@ -20486,6 +20525,7 @@
       <c r="C41" t="s">
         <v>1067</v>
       </c>
+      <c r="D41" t="s"/>
       <c r="E41" t="s">
         <v>1047</v>
       </c>
@@ -20509,6 +20549,9 @@
       <c r="C42" t="s">
         <v>1061</v>
       </c>
+      <c r="D42" t="s">
+        <v>1090</v>
+      </c>
       <c r="E42" t="s">
         <v>1047</v>
       </c>
@@ -20532,6 +20575,7 @@
       <c r="C43" t="s">
         <v>1056</v>
       </c>
+      <c r="D43" t="s"/>
       <c r="E43" t="s">
         <v>1047</v>
       </c>
@@ -20555,6 +20599,7 @@
       <c r="C44" t="s">
         <v>1068</v>
       </c>
+      <c r="D44" t="s"/>
       <c r="E44" t="s">
         <v>1047</v>
       </c>
@@ -20578,6 +20623,7 @@
       <c r="C45" t="s">
         <v>1069</v>
       </c>
+      <c r="D45" t="s"/>
       <c r="E45" t="s">
         <v>1047</v>
       </c>
@@ -20601,6 +20647,7 @@
       <c r="C46" t="s">
         <v>1070</v>
       </c>
+      <c r="D46" t="s"/>
       <c r="E46" t="s">
         <v>1047</v>
       </c>
@@ -20624,6 +20671,9 @@
       <c r="C47" t="s">
         <v>1048</v>
       </c>
+      <c r="D47" t="s">
+        <v>1089</v>
+      </c>
       <c r="E47" t="s">
         <v>1047</v>
       </c>
@@ -20647,6 +20697,7 @@
       <c r="C48" t="s">
         <v>1069</v>
       </c>
+      <c r="D48" t="s"/>
       <c r="E48" t="s">
         <v>1047</v>
       </c>
@@ -20670,6 +20721,7 @@
       <c r="C49" t="s">
         <v>1055</v>
       </c>
+      <c r="D49" t="s"/>
       <c r="E49" t="s">
         <v>1047</v>
       </c>
@@ -20693,6 +20745,7 @@
       <c r="C50" t="s">
         <v>1071</v>
       </c>
+      <c r="D50" t="s"/>
       <c r="E50" t="s">
         <v>1047</v>
       </c>
@@ -20716,6 +20769,9 @@
       <c r="C51" t="s">
         <v>1059</v>
       </c>
+      <c r="D51" t="s">
+        <v>1090</v>
+      </c>
       <c r="E51" t="s">
         <v>1047</v>
       </c>
@@ -20739,6 +20795,7 @@
       <c r="C52" t="s">
         <v>1057</v>
       </c>
+      <c r="D52" t="s"/>
       <c r="E52" t="s">
         <v>1047</v>
       </c>
@@ -20762,6 +20819,7 @@
       <c r="C53" t="s">
         <v>1057</v>
       </c>
+      <c r="D53" t="s"/>
       <c r="E53" t="s">
         <v>1047</v>
       </c>
@@ -20785,6 +20843,9 @@
       <c r="C54" t="s">
         <v>1059</v>
       </c>
+      <c r="D54" t="s">
+        <v>1090</v>
+      </c>
       <c r="E54" t="s">
         <v>1047</v>
       </c>
@@ -20808,6 +20869,7 @@
       <c r="C55" t="s">
         <v>1056</v>
       </c>
+      <c r="D55" t="s"/>
       <c r="E55" t="s">
         <v>1047</v>
       </c>
@@ -20831,6 +20893,7 @@
       <c r="C56" t="s">
         <v>1069</v>
       </c>
+      <c r="D56" t="s"/>
       <c r="E56" t="s">
         <v>1047</v>
       </c>
@@ -20854,6 +20917,7 @@
       <c r="C57" t="s">
         <v>1060</v>
       </c>
+      <c r="D57" t="s"/>
       <c r="E57" t="s">
         <v>1047</v>
       </c>
@@ -20877,6 +20941,7 @@
       <c r="C58" t="s">
         <v>1072</v>
       </c>
+      <c r="D58" t="s"/>
       <c r="E58" t="s">
         <v>1047</v>
       </c>
@@ -20900,6 +20965,7 @@
       <c r="C59" t="s">
         <v>1055</v>
       </c>
+      <c r="D59" t="s"/>
       <c r="E59" t="s">
         <v>1047</v>
       </c>
@@ -20923,6 +20989,7 @@
       <c r="C60" t="s">
         <v>1050</v>
       </c>
+      <c r="D60" t="s"/>
       <c r="E60" t="s">
         <v>1047</v>
       </c>
@@ -20946,6 +21013,7 @@
       <c r="C61" t="s">
         <v>1073</v>
       </c>
+      <c r="D61" t="s"/>
       <c r="E61" t="s">
         <v>1047</v>
       </c>
@@ -20969,6 +21037,9 @@
       <c r="C62" t="s">
         <v>1052</v>
       </c>
+      <c r="D62" t="s">
+        <v>1090</v>
+      </c>
       <c r="E62" t="s">
         <v>1047</v>
       </c>
@@ -20992,6 +21063,9 @@
       <c r="C63" t="s">
         <v>1054</v>
       </c>
+      <c r="D63" t="s">
+        <v>1090</v>
+      </c>
       <c r="E63" t="s">
         <v>1047</v>
       </c>
@@ -21015,6 +21089,9 @@
       <c r="C64" t="s">
         <v>1054</v>
       </c>
+      <c r="D64" t="s">
+        <v>1090</v>
+      </c>
       <c r="E64" t="s">
         <v>1047</v>
       </c>
@@ -21038,6 +21115,7 @@
       <c r="C65" t="s">
         <v>1055</v>
       </c>
+      <c r="D65" t="s"/>
       <c r="E65" t="s">
         <v>1047</v>
       </c>
@@ -21061,6 +21139,7 @@
       <c r="C66" t="s">
         <v>1057</v>
       </c>
+      <c r="D66" t="s"/>
       <c r="E66" t="s">
         <v>1047</v>
       </c>
@@ -21084,6 +21163,7 @@
       <c r="C67" t="s">
         <v>1057</v>
       </c>
+      <c r="D67" t="s"/>
       <c r="E67" t="s">
         <v>1047</v>
       </c>
@@ -21107,6 +21187,9 @@
       <c r="C68" t="s">
         <v>1049</v>
       </c>
+      <c r="D68" t="s">
+        <v>1090</v>
+      </c>
       <c r="E68" t="s">
         <v>1047</v>
       </c>
@@ -21130,6 +21213,9 @@
       <c r="C69" t="s">
         <v>1054</v>
       </c>
+      <c r="D69" t="s">
+        <v>1090</v>
+      </c>
       <c r="E69" t="s">
         <v>1047</v>
       </c>
@@ -21153,6 +21239,9 @@
       <c r="C70" t="s">
         <v>1048</v>
       </c>
+      <c r="D70" t="s">
+        <v>1089</v>
+      </c>
       <c r="E70" t="s">
         <v>1047</v>
       </c>
@@ -21176,6 +21265,9 @@
       <c r="C71" t="s">
         <v>1052</v>
       </c>
+      <c r="D71" t="s">
+        <v>1090</v>
+      </c>
       <c r="E71" t="s">
         <v>1047</v>
       </c>
@@ -21199,6 +21291,9 @@
       <c r="C72" t="s">
         <v>1054</v>
       </c>
+      <c r="D72" t="s">
+        <v>1090</v>
+      </c>
       <c r="E72" t="s">
         <v>1047</v>
       </c>
@@ -21222,6 +21317,9 @@
       <c r="C73" t="s">
         <v>1061</v>
       </c>
+      <c r="D73" t="s">
+        <v>1090</v>
+      </c>
       <c r="E73" t="s">
         <v>1047</v>
       </c>
@@ -21245,6 +21343,9 @@
       <c r="C74" t="s">
         <v>1061</v>
       </c>
+      <c r="D74" t="s">
+        <v>1090</v>
+      </c>
       <c r="E74" t="s">
         <v>1047</v>
       </c>
@@ -21268,6 +21369,7 @@
       <c r="C75" t="s">
         <v>1060</v>
       </c>
+      <c r="D75" t="s"/>
       <c r="E75" t="s">
         <v>1047</v>
       </c>
@@ -21291,6 +21393,9 @@
       <c r="C76" t="s">
         <v>1066</v>
       </c>
+      <c r="D76" t="s">
+        <v>1089</v>
+      </c>
       <c r="E76" t="s">
         <v>1047</v>
       </c>
@@ -21314,6 +21419,9 @@
       <c r="C77" t="s">
         <v>1059</v>
       </c>
+      <c r="D77" t="s">
+        <v>1090</v>
+      </c>
       <c r="E77" t="s">
         <v>1047</v>
       </c>
@@ -21337,6 +21445,7 @@
       <c r="C78" t="s">
         <v>1060</v>
       </c>
+      <c r="D78" t="s"/>
       <c r="E78" t="s">
         <v>1047</v>
       </c>
@@ -21360,6 +21469,7 @@
       <c r="C79" t="s">
         <v>1057</v>
       </c>
+      <c r="D79" t="s"/>
       <c r="E79" t="s">
         <v>1047</v>
       </c>
@@ -21383,6 +21493,7 @@
       <c r="C80" t="s">
         <v>1050</v>
       </c>
+      <c r="D80" t="s"/>
       <c r="E80" t="s">
         <v>1047</v>
       </c>
@@ -21406,6 +21517,9 @@
       <c r="C81" t="s">
         <v>1052</v>
       </c>
+      <c r="D81" t="s">
+        <v>1090</v>
+      </c>
       <c r="E81" t="s">
         <v>1047</v>
       </c>
@@ -21429,6 +21543,7 @@
       <c r="C82" t="s">
         <v>1055</v>
       </c>
+      <c r="D82" t="s"/>
       <c r="E82" t="s">
         <v>1047</v>
       </c>
@@ -21452,6 +21567,7 @@
       <c r="C83" t="s">
         <v>1055</v>
       </c>
+      <c r="D83" t="s"/>
       <c r="E83" t="s">
         <v>1047</v>
       </c>
@@ -21475,6 +21591,7 @@
       <c r="C84" t="s">
         <v>1057</v>
       </c>
+      <c r="D84" t="s"/>
       <c r="E84" t="s">
         <v>1047</v>
       </c>
@@ -21498,6 +21615,9 @@
       <c r="C85" t="s">
         <v>1061</v>
       </c>
+      <c r="D85" t="s">
+        <v>1090</v>
+      </c>
       <c r="E85" t="s">
         <v>1047</v>
       </c>
@@ -21521,6 +21641,7 @@
       <c r="C86" t="s">
         <v>1057</v>
       </c>
+      <c r="D86" t="s"/>
       <c r="E86" t="s">
         <v>1047</v>
       </c>
@@ -21544,6 +21665,7 @@
       <c r="C87" t="s">
         <v>1057</v>
       </c>
+      <c r="D87" t="s"/>
       <c r="E87" t="s">
         <v>1047</v>
       </c>
@@ -21567,6 +21689,9 @@
       <c r="C88" t="s">
         <v>1059</v>
       </c>
+      <c r="D88" t="s">
+        <v>1090</v>
+      </c>
       <c r="E88" t="s">
         <v>1047</v>
       </c>
@@ -21590,6 +21715,7 @@
       <c r="C89" t="s">
         <v>1070</v>
       </c>
+      <c r="D89" t="s"/>
       <c r="E89" t="s">
         <v>1047</v>
       </c>
@@ -21613,6 +21739,9 @@
       <c r="C90" t="s">
         <v>1074</v>
       </c>
+      <c r="D90" t="s">
+        <v>1090</v>
+      </c>
       <c r="E90" t="s">
         <v>1047</v>
       </c>
@@ -21636,6 +21765,7 @@
       <c r="C91" t="s">
         <v>1057</v>
       </c>
+      <c r="D91" t="s"/>
       <c r="E91" t="s">
         <v>1047</v>
       </c>
@@ -21659,6 +21789,9 @@
       <c r="C92" t="s">
         <v>1052</v>
       </c>
+      <c r="D92" t="s">
+        <v>1090</v>
+      </c>
       <c r="E92" t="s">
         <v>1047</v>
       </c>
@@ -21682,6 +21815,7 @@
       <c r="C93" t="s">
         <v>1057</v>
       </c>
+      <c r="D93" t="s"/>
       <c r="E93" t="s">
         <v>1047</v>
       </c>
@@ -21705,6 +21839,9 @@
       <c r="C94" t="s">
         <v>1049</v>
       </c>
+      <c r="D94" t="s">
+        <v>1090</v>
+      </c>
       <c r="E94" t="s">
         <v>1047</v>
       </c>
@@ -21728,6 +21865,9 @@
       <c r="C95" t="s">
         <v>1054</v>
       </c>
+      <c r="D95" t="s">
+        <v>1090</v>
+      </c>
       <c r="E95" t="s">
         <v>1047</v>
       </c>
@@ -21751,6 +21891,9 @@
       <c r="C96" t="s">
         <v>1059</v>
       </c>
+      <c r="D96" t="s">
+        <v>1090</v>
+      </c>
       <c r="E96" t="s">
         <v>1047</v>
       </c>
@@ -21774,6 +21917,7 @@
       <c r="C97" t="s">
         <v>1060</v>
       </c>
+      <c r="D97" t="s"/>
       <c r="E97" t="s">
         <v>1047</v>
       </c>
@@ -21797,6 +21941,7 @@
       <c r="C98" t="s">
         <v>1072</v>
       </c>
+      <c r="D98" t="s"/>
       <c r="E98" t="s">
         <v>1047</v>
       </c>
@@ -21820,6 +21965,9 @@
       <c r="C99" t="s">
         <v>1075</v>
       </c>
+      <c r="D99" t="s">
+        <v>1089</v>
+      </c>
       <c r="E99" t="s">
         <v>1047</v>
       </c>
@@ -21843,6 +21991,9 @@
       <c r="C100" t="s">
         <v>1049</v>
       </c>
+      <c r="D100" t="s">
+        <v>1090</v>
+      </c>
       <c r="E100" t="s">
         <v>1047</v>
       </c>
@@ -21866,6 +22017,7 @@
       <c r="C101" t="s">
         <v>1050</v>
       </c>
+      <c r="D101" t="s"/>
       <c r="E101" t="s">
         <v>1047</v>
       </c>
@@ -21889,6 +22041,9 @@
       <c r="C102" t="s">
         <v>1061</v>
       </c>
+      <c r="D102" t="s">
+        <v>1090</v>
+      </c>
       <c r="E102" t="s">
         <v>1047</v>
       </c>
@@ -21912,6 +22067,7 @@
       <c r="C103" t="s">
         <v>1070</v>
       </c>
+      <c r="D103" t="s"/>
       <c r="E103" t="s">
         <v>1047</v>
       </c>
@@ -21935,6 +22091,7 @@
       <c r="C104" t="s">
         <v>1057</v>
       </c>
+      <c r="D104" t="s"/>
       <c r="E104" t="s">
         <v>1047</v>
       </c>
@@ -21958,6 +22115,9 @@
       <c r="C105" t="s">
         <v>1059</v>
       </c>
+      <c r="D105" t="s">
+        <v>1090</v>
+      </c>
       <c r="E105" t="s">
         <v>1047</v>
       </c>
@@ -21981,6 +22141,9 @@
       <c r="C106" t="s">
         <v>1061</v>
       </c>
+      <c r="D106" t="s">
+        <v>1090</v>
+      </c>
       <c r="E106" t="s">
         <v>1047</v>
       </c>
@@ -22004,6 +22167,7 @@
       <c r="C107" t="s">
         <v>1057</v>
       </c>
+      <c r="D107" t="s"/>
       <c r="E107" t="s">
         <v>1047</v>
       </c>
@@ -22027,6 +22191,7 @@
       <c r="C108" t="s">
         <v>1065</v>
       </c>
+      <c r="D108" t="s"/>
       <c r="E108" t="s">
         <v>1047</v>
       </c>
@@ -22050,6 +22215,9 @@
       <c r="C109" t="s">
         <v>1052</v>
       </c>
+      <c r="D109" t="s">
+        <v>1090</v>
+      </c>
       <c r="E109" t="s">
         <v>1047</v>
       </c>
@@ -22073,6 +22241,9 @@
       <c r="C110" t="s">
         <v>1061</v>
       </c>
+      <c r="D110" t="s">
+        <v>1090</v>
+      </c>
       <c r="E110" t="s">
         <v>1047</v>
       </c>
@@ -22096,6 +22267,7 @@
       <c r="C111" t="s">
         <v>1050</v>
       </c>
+      <c r="D111" t="s"/>
       <c r="E111" t="s">
         <v>1047</v>
       </c>
@@ -22119,6 +22291,7 @@
       <c r="C112" t="s">
         <v>1050</v>
       </c>
+      <c r="D112" t="s"/>
       <c r="E112" t="s">
         <v>1047</v>
       </c>
@@ -22142,6 +22315,7 @@
       <c r="C113" t="s">
         <v>1055</v>
       </c>
+      <c r="D113" t="s"/>
       <c r="E113" t="s">
         <v>1047</v>
       </c>
@@ -22165,6 +22339,7 @@
       <c r="C114" t="s">
         <v>1055</v>
       </c>
+      <c r="D114" t="s"/>
       <c r="E114" t="s">
         <v>1047</v>
       </c>
@@ -22188,6 +22363,7 @@
       <c r="C115" t="s">
         <v>1057</v>
       </c>
+      <c r="D115" t="s"/>
       <c r="E115" t="s">
         <v>1047</v>
       </c>
@@ -22211,6 +22387,7 @@
       <c r="C116" t="s">
         <v>1076</v>
       </c>
+      <c r="D116" t="s"/>
       <c r="E116" t="s">
         <v>1047</v>
       </c>
@@ -22234,6 +22411,9 @@
       <c r="C117" t="s">
         <v>1075</v>
       </c>
+      <c r="D117" t="s">
+        <v>1089</v>
+      </c>
       <c r="E117" t="s">
         <v>1047</v>
       </c>
@@ -22257,6 +22437,9 @@
       <c r="C118" t="s">
         <v>1054</v>
       </c>
+      <c r="D118" t="s">
+        <v>1090</v>
+      </c>
       <c r="E118" t="s">
         <v>1047</v>
       </c>
@@ -22280,6 +22463,7 @@
       <c r="C119" t="s">
         <v>1060</v>
       </c>
+      <c r="D119" t="s"/>
       <c r="E119" t="s">
         <v>1047</v>
       </c>
@@ -22303,6 +22487,7 @@
       <c r="C120" t="s">
         <v>1057</v>
       </c>
+      <c r="D120" t="s"/>
       <c r="E120" t="s">
         <v>1047</v>
       </c>
@@ -22326,6 +22511,7 @@
       <c r="C121" t="s">
         <v>1060</v>
       </c>
+      <c r="D121" t="s"/>
       <c r="E121" t="s">
         <v>1047</v>
       </c>
@@ -22349,6 +22535,7 @@
       <c r="C122" t="s">
         <v>1068</v>
       </c>
+      <c r="D122" t="s"/>
       <c r="E122" t="s">
         <v>1047</v>
       </c>
@@ -22372,6 +22559,7 @@
       <c r="C123" t="s">
         <v>1057</v>
       </c>
+      <c r="D123" t="s"/>
       <c r="E123" t="s">
         <v>1047</v>
       </c>
@@ -22395,6 +22583,7 @@
       <c r="C124" t="s">
         <v>1070</v>
       </c>
+      <c r="D124" t="s"/>
       <c r="E124" t="s">
         <v>1047</v>
       </c>
@@ -22418,6 +22607,9 @@
       <c r="C125" t="s">
         <v>1058</v>
       </c>
+      <c r="D125" t="s">
+        <v>1090</v>
+      </c>
       <c r="E125" t="s">
         <v>1047</v>
       </c>
@@ -22441,6 +22633,9 @@
       <c r="C126" t="s">
         <v>1059</v>
       </c>
+      <c r="D126" t="s">
+        <v>1090</v>
+      </c>
       <c r="E126" t="s">
         <v>1047</v>
       </c>
@@ -22464,6 +22659,7 @@
       <c r="C127" t="s">
         <v>1055</v>
       </c>
+      <c r="D127" t="s"/>
       <c r="E127" t="s">
         <v>1047</v>
       </c>
@@ -22487,6 +22683,9 @@
       <c r="C128" t="s">
         <v>1058</v>
       </c>
+      <c r="D128" t="s">
+        <v>1090</v>
+      </c>
       <c r="E128" t="s">
         <v>1047</v>
       </c>
@@ -22510,6 +22709,7 @@
       <c r="C129" t="s">
         <v>1070</v>
       </c>
+      <c r="D129" t="s"/>
       <c r="E129" t="s">
         <v>1047</v>
       </c>
@@ -22533,6 +22733,9 @@
       <c r="C130" t="s">
         <v>1054</v>
       </c>
+      <c r="D130" t="s">
+        <v>1090</v>
+      </c>
       <c r="E130" t="s">
         <v>1047</v>
       </c>
@@ -22556,6 +22759,9 @@
       <c r="C131" t="s">
         <v>1061</v>
       </c>
+      <c r="D131" t="s">
+        <v>1090</v>
+      </c>
       <c r="E131" t="s">
         <v>1047</v>
       </c>
@@ -22579,6 +22785,7 @@
       <c r="C132" t="s">
         <v>1057</v>
       </c>
+      <c r="D132" t="s"/>
       <c r="E132" t="s">
         <v>1047</v>
       </c>
@@ -22602,6 +22809,7 @@
       <c r="C133" t="s">
         <v>1055</v>
       </c>
+      <c r="D133" t="s"/>
       <c r="E133" t="s">
         <v>1047</v>
       </c>
@@ -22625,6 +22833,9 @@
       <c r="C134" t="s">
         <v>1074</v>
       </c>
+      <c r="D134" t="s">
+        <v>1090</v>
+      </c>
       <c r="E134" t="s">
         <v>1047</v>
       </c>
@@ -22648,6 +22859,7 @@
       <c r="C135" t="s">
         <v>1057</v>
       </c>
+      <c r="D135" t="s"/>
       <c r="E135" t="s">
         <v>1047</v>
       </c>
@@ -22671,6 +22883,7 @@
       <c r="C136" t="s">
         <v>1067</v>
       </c>
+      <c r="D136" t="s"/>
       <c r="E136" t="s">
         <v>1047</v>
       </c>
@@ -22694,6 +22907,9 @@
       <c r="C137" t="s">
         <v>1066</v>
       </c>
+      <c r="D137" t="s">
+        <v>1089</v>
+      </c>
       <c r="E137" t="s">
         <v>1047</v>
       </c>
@@ -22717,6 +22933,7 @@
       <c r="C138" t="s">
         <v>1050</v>
       </c>
+      <c r="D138" t="s"/>
       <c r="E138" t="s">
         <v>1047</v>
       </c>
@@ -22740,6 +22957,7 @@
       <c r="C139" t="s">
         <v>1055</v>
       </c>
+      <c r="D139" t="s"/>
       <c r="E139" t="s">
         <v>1047</v>
       </c>
@@ -22763,6 +22981,7 @@
       <c r="C140" t="s">
         <v>1057</v>
       </c>
+      <c r="D140" t="s"/>
       <c r="E140" t="s">
         <v>1047</v>
       </c>
@@ -22786,6 +23005,9 @@
       <c r="C141" t="s">
         <v>1061</v>
       </c>
+      <c r="D141" t="s">
+        <v>1090</v>
+      </c>
       <c r="E141" t="s">
         <v>1047</v>
       </c>
@@ -22809,6 +23031,7 @@
       <c r="C142" t="s">
         <v>1057</v>
       </c>
+      <c r="D142" t="s"/>
       <c r="E142" t="s">
         <v>1047</v>
       </c>
@@ -22832,6 +23055,7 @@
       <c r="C143" t="s">
         <v>1056</v>
       </c>
+      <c r="D143" t="s"/>
       <c r="E143" t="s">
         <v>1047</v>
       </c>
@@ -22855,6 +23079,9 @@
       <c r="C144" t="s">
         <v>1054</v>
       </c>
+      <c r="D144" t="s">
+        <v>1090</v>
+      </c>
       <c r="E144" t="s">
         <v>1047</v>
       </c>
@@ -22878,6 +23105,7 @@
       <c r="C145" t="s">
         <v>1057</v>
       </c>
+      <c r="D145" t="s"/>
       <c r="E145" t="s">
         <v>1047</v>
       </c>
@@ -22901,6 +23129,9 @@
       <c r="C146" t="s">
         <v>1061</v>
       </c>
+      <c r="D146" t="s">
+        <v>1090</v>
+      </c>
       <c r="E146" t="s">
         <v>1047</v>
       </c>
@@ -22924,6 +23155,7 @@
       <c r="C147" t="s">
         <v>1067</v>
       </c>
+      <c r="D147" t="s"/>
       <c r="E147" t="s">
         <v>1047</v>
       </c>
@@ -22947,6 +23179,7 @@
       <c r="C148" t="s">
         <v>1057</v>
       </c>
+      <c r="D148" t="s"/>
       <c r="E148" t="s">
         <v>1047</v>
       </c>
@@ -22970,6 +23203,7 @@
       <c r="C149" t="s">
         <v>1057</v>
       </c>
+      <c r="D149" t="s"/>
       <c r="E149" t="s">
         <v>1047</v>
       </c>
@@ -22993,6 +23227,7 @@
       <c r="C150" t="s">
         <v>1046</v>
       </c>
+      <c r="D150" t="s"/>
       <c r="E150" t="s">
         <v>1047</v>
       </c>
@@ -23016,6 +23251,9 @@
       <c r="C151" t="s">
         <v>1061</v>
       </c>
+      <c r="D151" t="s">
+        <v>1090</v>
+      </c>
       <c r="E151" t="s">
         <v>1047</v>
       </c>
@@ -23039,6 +23277,7 @@
       <c r="C152" t="s">
         <v>1055</v>
       </c>
+      <c r="D152" t="s"/>
       <c r="E152" t="s">
         <v>1047</v>
       </c>
@@ -23062,6 +23301,7 @@
       <c r="C153" t="s">
         <v>1065</v>
       </c>
+      <c r="D153" t="s"/>
       <c r="E153" t="s">
         <v>1047</v>
       </c>
@@ -23085,6 +23325,7 @@
       <c r="C154" t="s">
         <v>1055</v>
       </c>
+      <c r="D154" t="s"/>
       <c r="E154" t="s">
         <v>1047</v>
       </c>
@@ -23108,6 +23349,9 @@
       <c r="C155" t="s">
         <v>1052</v>
       </c>
+      <c r="D155" t="s">
+        <v>1090</v>
+      </c>
       <c r="E155" t="s">
         <v>1047</v>
       </c>
@@ -23131,6 +23375,7 @@
       <c r="C156" t="s">
         <v>1076</v>
       </c>
+      <c r="D156" t="s"/>
       <c r="E156" t="s">
         <v>1047</v>
       </c>
@@ -23154,6 +23399,9 @@
       <c r="C157" t="s">
         <v>1054</v>
       </c>
+      <c r="D157" t="s">
+        <v>1090</v>
+      </c>
       <c r="E157" t="s">
         <v>1047</v>
       </c>
@@ -23177,6 +23425,7 @@
       <c r="C158" t="s">
         <v>1077</v>
       </c>
+      <c r="D158" t="s"/>
       <c r="E158" t="s">
         <v>1047</v>
       </c>
@@ -23200,6 +23449,9 @@
       <c r="C159" t="s">
         <v>1061</v>
       </c>
+      <c r="D159" t="s">
+        <v>1090</v>
+      </c>
       <c r="E159" t="s">
         <v>1047</v>
       </c>
@@ -23223,6 +23475,7 @@
       <c r="C160" t="s">
         <v>1078</v>
       </c>
+      <c r="D160" t="s"/>
       <c r="E160" t="s">
         <v>1047</v>
       </c>
@@ -23246,6 +23499,9 @@
       <c r="C161" t="s">
         <v>1061</v>
       </c>
+      <c r="D161" t="s">
+        <v>1090</v>
+      </c>
       <c r="E161" t="s">
         <v>1047</v>
       </c>
@@ -23269,6 +23525,7 @@
       <c r="C162" t="s">
         <v>1079</v>
       </c>
+      <c r="D162" t="s"/>
       <c r="E162" t="s">
         <v>1047</v>
       </c>
@@ -23292,6 +23549,7 @@
       <c r="C163" t="s">
         <v>1055</v>
       </c>
+      <c r="D163" t="s"/>
       <c r="E163" t="s">
         <v>1047</v>
       </c>
@@ -23315,6 +23573,9 @@
       <c r="C164" t="s">
         <v>1052</v>
       </c>
+      <c r="D164" t="s">
+        <v>1090</v>
+      </c>
       <c r="E164" t="s">
         <v>1047</v>
       </c>
@@ -23338,6 +23599,7 @@
       <c r="C165" t="s">
         <v>1067</v>
       </c>
+      <c r="D165" t="s"/>
       <c r="E165" t="s">
         <v>1047</v>
       </c>
@@ -23361,6 +23623,7 @@
       <c r="C166" t="s">
         <v>1067</v>
       </c>
+      <c r="D166" t="s"/>
       <c r="E166" t="s">
         <v>1047</v>
       </c>
@@ -23384,6 +23647,9 @@
       <c r="C167" t="s">
         <v>1049</v>
       </c>
+      <c r="D167" t="s">
+        <v>1090</v>
+      </c>
       <c r="E167" t="s">
         <v>1047</v>
       </c>
@@ -23407,6 +23673,9 @@
       <c r="C168" t="s">
         <v>1066</v>
       </c>
+      <c r="D168" t="s">
+        <v>1089</v>
+      </c>
       <c r="E168" t="s">
         <v>1047</v>
       </c>
@@ -23430,6 +23699,7 @@
       <c r="C169" t="s">
         <v>1057</v>
       </c>
+      <c r="D169" t="s"/>
       <c r="E169" t="s">
         <v>1047</v>
       </c>
@@ -23453,6 +23723,7 @@
       <c r="C170" t="s">
         <v>1070</v>
       </c>
+      <c r="D170" t="s"/>
       <c r="E170" t="s">
         <v>1047</v>
       </c>
@@ -23476,6 +23747,7 @@
       <c r="C171" t="s">
         <v>1046</v>
       </c>
+      <c r="D171" t="s"/>
       <c r="E171" t="s">
         <v>1047</v>
       </c>
@@ -23499,6 +23771,7 @@
       <c r="C172" t="s">
         <v>1071</v>
       </c>
+      <c r="D172" t="s"/>
       <c r="E172" t="s">
         <v>1047</v>
       </c>
@@ -23522,6 +23795,7 @@
       <c r="C173" t="s">
         <v>1068</v>
       </c>
+      <c r="D173" t="s"/>
       <c r="E173" t="s">
         <v>1047</v>
       </c>
@@ -23545,6 +23819,9 @@
       <c r="C174" t="s">
         <v>1061</v>
       </c>
+      <c r="D174" t="s">
+        <v>1090</v>
+      </c>
       <c r="E174" t="s">
         <v>1047</v>
       </c>
@@ -23568,6 +23845,9 @@
       <c r="C175" t="s">
         <v>1066</v>
       </c>
+      <c r="D175" t="s">
+        <v>1089</v>
+      </c>
       <c r="E175" t="s">
         <v>1047</v>
       </c>
@@ -23591,6 +23871,7 @@
       <c r="C176" t="s">
         <v>1071</v>
       </c>
+      <c r="D176" t="s"/>
       <c r="E176" t="s">
         <v>1047</v>
       </c>
@@ -23614,6 +23895,9 @@
       <c r="C177" t="s">
         <v>1074</v>
       </c>
+      <c r="D177" t="s">
+        <v>1090</v>
+      </c>
       <c r="E177" t="s">
         <v>1047</v>
       </c>
@@ -23637,6 +23921,7 @@
       <c r="C178" t="s">
         <v>1080</v>
       </c>
+      <c r="D178" t="s"/>
       <c r="E178" t="s">
         <v>1047</v>
       </c>
@@ -23660,6 +23945,7 @@
       <c r="C179" t="s">
         <v>1057</v>
       </c>
+      <c r="D179" t="s"/>
       <c r="E179" t="s">
         <v>1047</v>
       </c>
@@ -23683,6 +23969,7 @@
       <c r="C180" t="s">
         <v>1069</v>
       </c>
+      <c r="D180" t="s"/>
       <c r="E180" t="s">
         <v>1047</v>
       </c>
@@ -23706,6 +23993,9 @@
       <c r="C181" t="s">
         <v>1049</v>
       </c>
+      <c r="D181" t="s">
+        <v>1090</v>
+      </c>
       <c r="E181" t="s">
         <v>1047</v>
       </c>
@@ -23729,6 +24019,9 @@
       <c r="C182" t="s">
         <v>1074</v>
       </c>
+      <c r="D182" t="s">
+        <v>1090</v>
+      </c>
       <c r="E182" t="s">
         <v>1047</v>
       </c>
@@ -23752,6 +24045,7 @@
       <c r="C183" t="s">
         <v>1050</v>
       </c>
+      <c r="D183" t="s"/>
       <c r="E183" t="s">
         <v>1047</v>
       </c>
@@ -23775,6 +24069,9 @@
       <c r="C184" t="s">
         <v>1059</v>
       </c>
+      <c r="D184" t="s">
+        <v>1090</v>
+      </c>
       <c r="E184" t="s">
         <v>1047</v>
       </c>
@@ -23798,6 +24095,7 @@
       <c r="C185" t="s">
         <v>1057</v>
       </c>
+      <c r="D185" t="s"/>
       <c r="E185" t="s">
         <v>1047</v>
       </c>
@@ -23821,6 +24119,7 @@
       <c r="C186" t="s">
         <v>1057</v>
       </c>
+      <c r="D186" t="s"/>
       <c r="E186" t="s">
         <v>1047</v>
       </c>
@@ -23844,6 +24143,7 @@
       <c r="C187" t="s">
         <v>1055</v>
       </c>
+      <c r="D187" t="s"/>
       <c r="E187" t="s">
         <v>1047</v>
       </c>
@@ -23867,6 +24167,9 @@
       <c r="C188" t="s">
         <v>1066</v>
       </c>
+      <c r="D188" t="s">
+        <v>1089</v>
+      </c>
       <c r="E188" t="s">
         <v>1047</v>
       </c>
@@ -23890,6 +24193,7 @@
       <c r="C189" t="s">
         <v>1065</v>
       </c>
+      <c r="D189" t="s"/>
       <c r="E189" t="s">
         <v>1047</v>
       </c>
@@ -23913,6 +24217,9 @@
       <c r="C190" t="s">
         <v>1052</v>
       </c>
+      <c r="D190" t="s">
+        <v>1090</v>
+      </c>
       <c r="E190" t="s">
         <v>1047</v>
       </c>
@@ -23936,6 +24243,9 @@
       <c r="C191" t="s">
         <v>1052</v>
       </c>
+      <c r="D191" t="s">
+        <v>1090</v>
+      </c>
       <c r="E191" t="s">
         <v>1047</v>
       </c>
@@ -23959,6 +24269,9 @@
       <c r="C192" t="s">
         <v>1049</v>
       </c>
+      <c r="D192" t="s">
+        <v>1090</v>
+      </c>
       <c r="E192" t="s">
         <v>1047</v>
       </c>
@@ -23982,6 +24295,7 @@
       <c r="C193" t="s">
         <v>1057</v>
       </c>
+      <c r="D193" t="s"/>
       <c r="E193" t="s">
         <v>1047</v>
       </c>
@@ -24005,6 +24319,7 @@
       <c r="C194" t="s">
         <v>1070</v>
       </c>
+      <c r="D194" t="s"/>
       <c r="E194" t="s">
         <v>1047</v>
       </c>
@@ -24028,6 +24343,7 @@
       <c r="C195" t="s">
         <v>1081</v>
       </c>
+      <c r="D195" t="s"/>
       <c r="E195" t="s">
         <v>1047</v>
       </c>
@@ -24051,6 +24367,9 @@
       <c r="C196" t="s">
         <v>1054</v>
       </c>
+      <c r="D196" t="s">
+        <v>1090</v>
+      </c>
       <c r="E196" t="s">
         <v>1047</v>
       </c>
@@ -24074,6 +24393,7 @@
       <c r="C197" t="s">
         <v>1057</v>
       </c>
+      <c r="D197" t="s"/>
       <c r="E197" t="s">
         <v>1047</v>
       </c>
@@ -24097,6 +24417,7 @@
       <c r="C198" t="s">
         <v>1081</v>
       </c>
+      <c r="D198" t="s"/>
       <c r="E198" t="s">
         <v>1047</v>
       </c>
@@ -24120,6 +24441,9 @@
       <c r="C199" t="s">
         <v>1049</v>
       </c>
+      <c r="D199" t="s">
+        <v>1090</v>
+      </c>
       <c r="E199" t="s">
         <v>1047</v>
       </c>
@@ -24143,6 +24467,7 @@
       <c r="C200" t="s">
         <v>1068</v>
       </c>
+      <c r="D200" t="s"/>
       <c r="E200" t="s">
         <v>1047</v>
       </c>
@@ -24166,6 +24491,9 @@
       <c r="C201" t="s">
         <v>1066</v>
       </c>
+      <c r="D201" t="s">
+        <v>1089</v>
+      </c>
       <c r="E201" t="s">
         <v>1047</v>
       </c>
@@ -24189,6 +24517,7 @@
       <c r="C202" t="s">
         <v>1055</v>
       </c>
+      <c r="D202" t="s"/>
       <c r="E202" t="s">
         <v>1047</v>
       </c>
@@ -24212,6 +24541,7 @@
       <c r="C203" t="s">
         <v>1057</v>
       </c>
+      <c r="D203" t="s"/>
       <c r="E203" t="s">
         <v>1047</v>
       </c>
@@ -24235,6 +24565,9 @@
       <c r="C204" t="s">
         <v>1054</v>
       </c>
+      <c r="D204" t="s">
+        <v>1090</v>
+      </c>
       <c r="E204" t="s">
         <v>1047</v>
       </c>
@@ -24258,6 +24591,7 @@
       <c r="C205" t="s">
         <v>1055</v>
       </c>
+      <c r="D205" t="s"/>
       <c r="E205" t="s">
         <v>1047</v>
       </c>
@@ -24281,6 +24615,7 @@
       <c r="C206" t="s">
         <v>1057</v>
       </c>
+      <c r="D206" t="s"/>
       <c r="E206" t="s">
         <v>1047</v>
       </c>
@@ -24304,6 +24639,7 @@
       <c r="C207" t="s">
         <v>1072</v>
       </c>
+      <c r="D207" t="s"/>
       <c r="E207" t="s">
         <v>1047</v>
       </c>
@@ -24327,6 +24663,9 @@
       <c r="C208" t="s">
         <v>1052</v>
       </c>
+      <c r="D208" t="s">
+        <v>1090</v>
+      </c>
       <c r="E208" t="s">
         <v>1047</v>
       </c>
@@ -24350,6 +24689,9 @@
       <c r="C209" t="s">
         <v>1061</v>
       </c>
+      <c r="D209" t="s">
+        <v>1090</v>
+      </c>
       <c r="E209" t="s">
         <v>1047</v>
       </c>
@@ -24373,6 +24715,9 @@
       <c r="C210" t="s">
         <v>1052</v>
       </c>
+      <c r="D210" t="s">
+        <v>1090</v>
+      </c>
       <c r="E210" t="s">
         <v>1047</v>
       </c>
@@ -24396,6 +24741,7 @@
       <c r="C211" t="s">
         <v>1050</v>
       </c>
+      <c r="D211" t="s"/>
       <c r="E211" t="s">
         <v>1047</v>
       </c>
@@ -24419,6 +24765,9 @@
       <c r="C212" t="s">
         <v>1054</v>
       </c>
+      <c r="D212" t="s">
+        <v>1090</v>
+      </c>
       <c r="E212" t="s">
         <v>1047</v>
       </c>
@@ -24442,6 +24791,9 @@
       <c r="C213" t="s">
         <v>1074</v>
       </c>
+      <c r="D213" t="s">
+        <v>1090</v>
+      </c>
       <c r="E213" t="s">
         <v>1047</v>
       </c>
@@ -24465,6 +24817,7 @@
       <c r="C214" t="s">
         <v>1081</v>
       </c>
+      <c r="D214" t="s"/>
       <c r="E214" t="s">
         <v>1047</v>
       </c>
@@ -24488,6 +24841,9 @@
       <c r="C215" t="s">
         <v>1054</v>
       </c>
+      <c r="D215" t="s">
+        <v>1090</v>
+      </c>
       <c r="E215" t="s">
         <v>1047</v>
       </c>
@@ -24511,6 +24867,7 @@
       <c r="C216" t="s">
         <v>1055</v>
       </c>
+      <c r="D216" t="s"/>
       <c r="E216" t="s">
         <v>1047</v>
       </c>
@@ -24534,6 +24891,7 @@
       <c r="C217" t="s">
         <v>1082</v>
       </c>
+      <c r="D217" t="s"/>
       <c r="E217" t="s">
         <v>1047</v>
       </c>
@@ -24557,6 +24915,7 @@
       <c r="C218" t="s">
         <v>1065</v>
       </c>
+      <c r="D218" t="s"/>
       <c r="E218" t="s">
         <v>1047</v>
       </c>
@@ -24580,6 +24939,9 @@
       <c r="C219" t="s">
         <v>1054</v>
       </c>
+      <c r="D219" t="s">
+        <v>1090</v>
+      </c>
       <c r="E219" t="s">
         <v>1047</v>
       </c>
@@ -24603,6 +24965,9 @@
       <c r="C220" t="s">
         <v>1058</v>
       </c>
+      <c r="D220" t="s">
+        <v>1090</v>
+      </c>
       <c r="E220" t="s">
         <v>1047</v>
       </c>
@@ -24626,6 +24991,9 @@
       <c r="C221" t="s">
         <v>1052</v>
       </c>
+      <c r="D221" t="s">
+        <v>1090</v>
+      </c>
       <c r="E221" t="s">
         <v>1047</v>
       </c>
@@ -24649,6 +25017,9 @@
       <c r="C222" t="s">
         <v>1059</v>
       </c>
+      <c r="D222" t="s">
+        <v>1090</v>
+      </c>
       <c r="E222" t="s">
         <v>1047</v>
       </c>
@@ -24672,6 +25043,9 @@
       <c r="C223" t="s">
         <v>1054</v>
       </c>
+      <c r="D223" t="s">
+        <v>1090</v>
+      </c>
       <c r="E223" t="s">
         <v>1047</v>
       </c>
@@ -24695,6 +25069,9 @@
       <c r="C224" t="s">
         <v>1054</v>
       </c>
+      <c r="D224" t="s">
+        <v>1090</v>
+      </c>
       <c r="E224" t="s">
         <v>1047</v>
       </c>
@@ -24718,6 +25095,7 @@
       <c r="C225" t="s">
         <v>1057</v>
       </c>
+      <c r="D225" t="s"/>
       <c r="E225" t="s">
         <v>1047</v>
       </c>
@@ -24741,6 +25119,9 @@
       <c r="C226" t="s">
         <v>1054</v>
       </c>
+      <c r="D226" t="s">
+        <v>1090</v>
+      </c>
       <c r="E226" t="s">
         <v>1047</v>
       </c>
@@ -24764,6 +25145,7 @@
       <c r="C227" t="s">
         <v>1050</v>
       </c>
+      <c r="D227" t="s"/>
       <c r="E227" t="s">
         <v>1047</v>
       </c>
@@ -24787,6 +25169,7 @@
       <c r="C228" t="s">
         <v>1055</v>
       </c>
+      <c r="D228" t="s"/>
       <c r="E228" t="s">
         <v>1047</v>
       </c>
@@ -24810,6 +25193,9 @@
       <c r="C229" t="s">
         <v>1066</v>
       </c>
+      <c r="D229" t="s">
+        <v>1089</v>
+      </c>
       <c r="E229" t="s">
         <v>1047</v>
       </c>
@@ -24833,6 +25219,7 @@
       <c r="C230" t="s">
         <v>1057</v>
       </c>
+      <c r="D230" t="s"/>
       <c r="E230" t="s">
         <v>1047</v>
       </c>
@@ -24856,6 +25243,7 @@
       <c r="C231" t="s">
         <v>1057</v>
       </c>
+      <c r="D231" t="s"/>
       <c r="E231" t="s">
         <v>1047</v>
       </c>
@@ -24879,6 +25267,7 @@
       <c r="C232" t="s">
         <v>1057</v>
       </c>
+      <c r="D232" t="s"/>
       <c r="E232" t="s">
         <v>1047</v>
       </c>
@@ -24902,6 +25291,9 @@
       <c r="C233" t="s">
         <v>1061</v>
       </c>
+      <c r="D233" t="s">
+        <v>1090</v>
+      </c>
       <c r="E233" t="s">
         <v>1047</v>
       </c>
@@ -24925,6 +25317,9 @@
       <c r="C234" t="s">
         <v>1061</v>
       </c>
+      <c r="D234" t="s">
+        <v>1090</v>
+      </c>
       <c r="E234" t="s">
         <v>1047</v>
       </c>
@@ -24948,6 +25343,7 @@
       <c r="C235" t="s">
         <v>1050</v>
       </c>
+      <c r="D235" t="s"/>
       <c r="E235" t="s">
         <v>1047</v>
       </c>
@@ -24971,6 +25367,7 @@
       <c r="C236" t="s">
         <v>1068</v>
       </c>
+      <c r="D236" t="s"/>
       <c r="E236" t="s">
         <v>1047</v>
       </c>
@@ -24994,6 +25391,9 @@
       <c r="C237" t="s">
         <v>1049</v>
       </c>
+      <c r="D237" t="s">
+        <v>1090</v>
+      </c>
       <c r="E237" t="s">
         <v>1047</v>
       </c>
@@ -25017,6 +25417,7 @@
       <c r="C238" t="s">
         <v>1060</v>
       </c>
+      <c r="D238" t="s"/>
       <c r="E238" t="s">
         <v>1047</v>
       </c>
@@ -25040,6 +25441,7 @@
       <c r="C239" t="s">
         <v>1055</v>
       </c>
+      <c r="D239" t="s"/>
       <c r="E239" t="s">
         <v>1047</v>
       </c>
@@ -25063,6 +25465,9 @@
       <c r="C240" t="s">
         <v>1061</v>
       </c>
+      <c r="D240" t="s">
+        <v>1090</v>
+      </c>
       <c r="E240" t="s">
         <v>1047</v>
       </c>
@@ -25086,6 +25491,9 @@
       <c r="C241" t="s">
         <v>1061</v>
       </c>
+      <c r="D241" t="s">
+        <v>1090</v>
+      </c>
       <c r="E241" t="s">
         <v>1047</v>
       </c>
@@ -25109,6 +25517,9 @@
       <c r="C242" t="s">
         <v>1061</v>
       </c>
+      <c r="D242" t="s">
+        <v>1090</v>
+      </c>
       <c r="E242" t="s">
         <v>1047</v>
       </c>
@@ -25132,6 +25543,7 @@
       <c r="C243" t="s">
         <v>1057</v>
       </c>
+      <c r="D243" t="s"/>
       <c r="E243" t="s">
         <v>1047</v>
       </c>
@@ -25155,6 +25567,7 @@
       <c r="C244" t="s">
         <v>1060</v>
       </c>
+      <c r="D244" t="s"/>
       <c r="E244" t="s">
         <v>1047</v>
       </c>
@@ -25178,6 +25591,9 @@
       <c r="C245" t="s">
         <v>1059</v>
       </c>
+      <c r="D245" t="s">
+        <v>1090</v>
+      </c>
       <c r="E245" t="s">
         <v>1047</v>
       </c>
@@ -25201,6 +25617,7 @@
       <c r="C246" t="s">
         <v>1057</v>
       </c>
+      <c r="D246" t="s"/>
       <c r="E246" t="s">
         <v>1047</v>
       </c>
@@ -25224,6 +25641,7 @@
       <c r="C247" t="s">
         <v>1046</v>
       </c>
+      <c r="D247" t="s"/>
       <c r="E247" t="s">
         <v>1047</v>
       </c>
@@ -25247,6 +25665,9 @@
       <c r="C248" t="s">
         <v>1052</v>
       </c>
+      <c r="D248" t="s">
+        <v>1090</v>
+      </c>
       <c r="E248" t="s">
         <v>1047</v>
       </c>
@@ -25270,6 +25691,7 @@
       <c r="C249" t="s">
         <v>1079</v>
       </c>
+      <c r="D249" t="s"/>
       <c r="E249" t="s">
         <v>1047</v>
       </c>
@@ -25293,6 +25715,7 @@
       <c r="C250" t="s">
         <v>1050</v>
       </c>
+      <c r="D250" t="s"/>
       <c r="E250" t="s">
         <v>1047</v>
       </c>
@@ -25316,6 +25739,9 @@
       <c r="C251" t="s">
         <v>1054</v>
       </c>
+      <c r="D251" t="s">
+        <v>1090</v>
+      </c>
       <c r="E251" t="s">
         <v>1047</v>
       </c>
@@ -25339,6 +25765,9 @@
       <c r="C252" t="s">
         <v>1054</v>
       </c>
+      <c r="D252" t="s">
+        <v>1090</v>
+      </c>
       <c r="E252" t="s">
         <v>1047</v>
       </c>
@@ -25362,6 +25791,9 @@
       <c r="C253" t="s">
         <v>1054</v>
       </c>
+      <c r="D253" t="s">
+        <v>1090</v>
+      </c>
       <c r="E253" t="s">
         <v>1047</v>
       </c>
@@ -25385,6 +25817,7 @@
       <c r="C254" t="s">
         <v>1055</v>
       </c>
+      <c r="D254" t="s"/>
       <c r="E254" t="s">
         <v>1047</v>
       </c>
@@ -25408,6 +25841,7 @@
       <c r="C255" t="s">
         <v>1055</v>
       </c>
+      <c r="D255" t="s"/>
       <c r="E255" t="s">
         <v>1047</v>
       </c>
@@ -25431,6 +25865,7 @@
       <c r="C256" t="s">
         <v>1062</v>
       </c>
+      <c r="D256" t="s"/>
       <c r="E256" t="s">
         <v>1047</v>
       </c>
@@ -25454,6 +25889,9 @@
       <c r="C257" t="s">
         <v>1052</v>
       </c>
+      <c r="D257" t="s">
+        <v>1090</v>
+      </c>
       <c r="E257" t="s">
         <v>1047</v>
       </c>
@@ -25477,6 +25915,9 @@
       <c r="C258" t="s">
         <v>1052</v>
       </c>
+      <c r="D258" t="s">
+        <v>1090</v>
+      </c>
       <c r="E258" t="s">
         <v>1047</v>
       </c>
@@ -25500,6 +25941,9 @@
       <c r="C259" t="s">
         <v>1054</v>
       </c>
+      <c r="D259" t="s">
+        <v>1090</v>
+      </c>
       <c r="E259" t="s">
         <v>1047</v>
       </c>
@@ -25523,6 +25967,9 @@
       <c r="C260" t="s">
         <v>1052</v>
       </c>
+      <c r="D260" t="s">
+        <v>1090</v>
+      </c>
       <c r="E260" t="s">
         <v>1047</v>
       </c>
@@ -25546,6 +25993,9 @@
       <c r="C261" t="s">
         <v>1052</v>
       </c>
+      <c r="D261" t="s">
+        <v>1090</v>
+      </c>
       <c r="E261" t="s">
         <v>1047</v>
       </c>
@@ -25569,6 +26019,7 @@
       <c r="C262" t="s">
         <v>1050</v>
       </c>
+      <c r="D262" t="s"/>
       <c r="E262" t="s">
         <v>1047</v>
       </c>
@@ -25592,6 +26043,9 @@
       <c r="C263" t="s">
         <v>1054</v>
       </c>
+      <c r="D263" t="s">
+        <v>1090</v>
+      </c>
       <c r="E263" t="s">
         <v>1047</v>
       </c>
@@ -25615,6 +26069,7 @@
       <c r="C264" t="s">
         <v>1071</v>
       </c>
+      <c r="D264" t="s"/>
       <c r="E264" t="s">
         <v>1047</v>
       </c>
@@ -25638,6 +26093,7 @@
       <c r="C265" t="s">
         <v>1057</v>
       </c>
+      <c r="D265" t="s"/>
       <c r="E265" t="s">
         <v>1047</v>
       </c>
@@ -25661,6 +26117,7 @@
       <c r="C266" t="s">
         <v>1063</v>
       </c>
+      <c r="D266" t="s"/>
       <c r="E266" t="s">
         <v>1047</v>
       </c>
@@ -25684,6 +26141,7 @@
       <c r="C267" t="s">
         <v>1055</v>
       </c>
+      <c r="D267" t="s"/>
       <c r="E267" t="s">
         <v>1047</v>
       </c>
@@ -25707,6 +26165,9 @@
       <c r="C268" t="s">
         <v>1066</v>
       </c>
+      <c r="D268" t="s">
+        <v>1089</v>
+      </c>
       <c r="E268" t="s">
         <v>1047</v>
       </c>
@@ -25730,6 +26191,9 @@
       <c r="C269" t="s">
         <v>1061</v>
       </c>
+      <c r="D269" t="s">
+        <v>1090</v>
+      </c>
       <c r="E269" t="s">
         <v>1047</v>
       </c>
@@ -25753,6 +26217,7 @@
       <c r="C270" t="s">
         <v>1083</v>
       </c>
+      <c r="D270" t="s"/>
       <c r="E270" t="s">
         <v>1047</v>
       </c>
@@ -25776,6 +26241,7 @@
       <c r="C271" t="s">
         <v>1081</v>
       </c>
+      <c r="D271" t="s"/>
       <c r="E271" t="s">
         <v>1047</v>
       </c>
@@ -25799,6 +26265,7 @@
       <c r="C272" t="s">
         <v>1081</v>
       </c>
+      <c r="D272" t="s"/>
       <c r="E272" t="s">
         <v>1047</v>
       </c>
@@ -25822,6 +26289,7 @@
       <c r="C273" t="s">
         <v>1064</v>
       </c>
+      <c r="D273" t="s"/>
       <c r="E273" t="s">
         <v>1047</v>
       </c>
@@ -25845,6 +26313,7 @@
       <c r="C274" t="s">
         <v>1056</v>
       </c>
+      <c r="D274" t="s"/>
       <c r="E274" t="s">
         <v>1047</v>
       </c>
@@ -25868,6 +26337,7 @@
       <c r="C275" t="s">
         <v>1055</v>
       </c>
+      <c r="D275" t="s"/>
       <c r="E275" t="s">
         <v>1047</v>
       </c>
@@ -25891,6 +26361,7 @@
       <c r="C276" t="s">
         <v>1055</v>
       </c>
+      <c r="D276" t="s"/>
       <c r="E276" t="s">
         <v>1047</v>
       </c>
@@ -25914,6 +26385,7 @@
       <c r="C277" t="s">
         <v>1076</v>
       </c>
+      <c r="D277" t="s"/>
       <c r="E277" t="s">
         <v>1047</v>
       </c>
@@ -25937,6 +26409,7 @@
       <c r="C278" t="s">
         <v>1084</v>
       </c>
+      <c r="D278" t="s"/>
       <c r="E278" t="s">
         <v>1047</v>
       </c>
@@ -25960,6 +26433,7 @@
       <c r="C279" t="s">
         <v>1050</v>
       </c>
+      <c r="D279" t="s"/>
       <c r="E279" t="s">
         <v>1047</v>
       </c>
@@ -25983,6 +26457,9 @@
       <c r="C280" t="s">
         <v>1054</v>
       </c>
+      <c r="D280" t="s">
+        <v>1090</v>
+      </c>
       <c r="E280" t="s">
         <v>1047</v>
       </c>
@@ -26006,6 +26483,9 @@
       <c r="C281" t="s">
         <v>1075</v>
       </c>
+      <c r="D281" t="s">
+        <v>1089</v>
+      </c>
       <c r="E281" t="s">
         <v>1047</v>
       </c>
@@ -26029,6 +26509,7 @@
       <c r="C282" t="s">
         <v>1055</v>
       </c>
+      <c r="D282" t="s"/>
       <c r="E282" t="s">
         <v>1047</v>
       </c>
@@ -26052,6 +26533,9 @@
       <c r="C283" t="s">
         <v>1059</v>
       </c>
+      <c r="D283" t="s">
+        <v>1090</v>
+      </c>
       <c r="E283" t="s">
         <v>1047</v>
       </c>
@@ -26075,6 +26559,7 @@
       <c r="C284" t="s">
         <v>1057</v>
       </c>
+      <c r="D284" t="s"/>
       <c r="E284" t="s">
         <v>1047</v>
       </c>
@@ -26098,6 +26583,7 @@
       <c r="C285" t="s">
         <v>1067</v>
       </c>
+      <c r="D285" t="s"/>
       <c r="E285" t="s">
         <v>1047</v>
       </c>
@@ -26121,6 +26607,9 @@
       <c r="C286" t="s">
         <v>1061</v>
       </c>
+      <c r="D286" t="s">
+        <v>1090</v>
+      </c>
       <c r="E286" t="s">
         <v>1047</v>
       </c>
@@ -26144,6 +26633,7 @@
       <c r="C287" t="s">
         <v>1085</v>
       </c>
+      <c r="D287" t="s"/>
       <c r="E287" t="s">
         <v>1047</v>
       </c>
@@ -26167,6 +26657,7 @@
       <c r="C288" t="s">
         <v>1056</v>
       </c>
+      <c r="D288" t="s"/>
       <c r="E288" t="s">
         <v>1047</v>
       </c>
@@ -26190,6 +26681,7 @@
       <c r="C289" t="s">
         <v>1055</v>
       </c>
+      <c r="D289" t="s"/>
       <c r="E289" t="s">
         <v>1047</v>
       </c>
@@ -26213,6 +26705,9 @@
       <c r="C290" t="s">
         <v>1061</v>
       </c>
+      <c r="D290" t="s">
+        <v>1090</v>
+      </c>
       <c r="E290" t="s">
         <v>1047</v>
       </c>
@@ -26236,6 +26731,9 @@
       <c r="C291" t="s">
         <v>1061</v>
       </c>
+      <c r="D291" t="s">
+        <v>1090</v>
+      </c>
       <c r="E291" t="s">
         <v>1047</v>
       </c>
@@ -26259,6 +26757,7 @@
       <c r="C292" t="s">
         <v>1081</v>
       </c>
+      <c r="D292" t="s"/>
       <c r="E292" t="s">
         <v>1047</v>
       </c>
@@ -26282,6 +26781,7 @@
       <c r="C293" t="s">
         <v>1082</v>
       </c>
+      <c r="D293" t="s"/>
       <c r="E293" t="s">
         <v>1047</v>
       </c>
@@ -26305,6 +26805,7 @@
       <c r="C294" t="s">
         <v>1070</v>
       </c>
+      <c r="D294" t="s"/>
       <c r="E294" t="s">
         <v>1047</v>
       </c>
@@ -26328,6 +26829,9 @@
       <c r="C295" t="s">
         <v>1074</v>
       </c>
+      <c r="D295" t="s">
+        <v>1090</v>
+      </c>
       <c r="E295" t="s">
         <v>1047</v>
       </c>
@@ -26351,6 +26855,7 @@
       <c r="C296" t="s">
         <v>1055</v>
       </c>
+      <c r="D296" t="s"/>
       <c r="E296" t="s">
         <v>1047</v>
       </c>
@@ -26374,6 +26879,7 @@
       <c r="C297" t="s">
         <v>1069</v>
       </c>
+      <c r="D297" t="s"/>
       <c r="E297" t="s">
         <v>1047</v>
       </c>
@@ -26397,6 +26903,9 @@
       <c r="C298" t="s">
         <v>1049</v>
       </c>
+      <c r="D298" t="s">
+        <v>1090</v>
+      </c>
       <c r="E298" t="s">
         <v>1047</v>
       </c>
@@ -26420,6 +26929,7 @@
       <c r="C299" t="s">
         <v>1050</v>
       </c>
+      <c r="D299" t="s"/>
       <c r="E299" t="s">
         <v>1047</v>
       </c>
@@ -26443,6 +26953,9 @@
       <c r="C300" t="s">
         <v>1061</v>
       </c>
+      <c r="D300" t="s">
+        <v>1090</v>
+      </c>
       <c r="E300" t="s">
         <v>1047</v>
       </c>
@@ -26466,6 +26979,7 @@
       <c r="C301" t="s">
         <v>1057</v>
       </c>
+      <c r="D301" t="s"/>
       <c r="E301" t="s">
         <v>1047</v>
       </c>
@@ -26489,6 +27003,9 @@
       <c r="C302" t="s">
         <v>1054</v>
       </c>
+      <c r="D302" t="s">
+        <v>1090</v>
+      </c>
       <c r="E302" t="s">
         <v>1047</v>
       </c>
@@ -26512,6 +27029,9 @@
       <c r="C303" t="s">
         <v>1061</v>
       </c>
+      <c r="D303" t="s">
+        <v>1090</v>
+      </c>
       <c r="E303" t="s">
         <v>1047</v>
       </c>
@@ -26535,6 +27055,9 @@
       <c r="C304" t="s">
         <v>1052</v>
       </c>
+      <c r="D304" t="s">
+        <v>1090</v>
+      </c>
       <c r="E304" t="s">
         <v>1047</v>
       </c>
@@ -26558,6 +27081,7 @@
       <c r="C305" t="s">
         <v>1086</v>
       </c>
+      <c r="D305" t="s"/>
       <c r="E305" t="s">
         <v>1047</v>
       </c>
@@ -26581,6 +27105,7 @@
       <c r="C306" t="s">
         <v>1057</v>
       </c>
+      <c r="D306" t="s"/>
       <c r="E306" t="s">
         <v>1047</v>
       </c>
@@ -26604,6 +27129,7 @@
       <c r="C307" t="s">
         <v>1076</v>
       </c>
+      <c r="D307" t="s"/>
       <c r="E307" t="s">
         <v>1047</v>
       </c>
@@ -26627,6 +27153,7 @@
       <c r="C308" t="s">
         <v>1055</v>
       </c>
+      <c r="D308" t="s"/>
       <c r="E308" t="s">
         <v>1047</v>
       </c>
@@ -26650,6 +27177,7 @@
       <c r="C309" t="s">
         <v>1070</v>
       </c>
+      <c r="D309" t="s"/>
       <c r="E309" t="s">
         <v>1047</v>
       </c>
@@ -26673,6 +27201,7 @@
       <c r="C310" t="s">
         <v>1051</v>
       </c>
+      <c r="D310" t="s"/>
       <c r="E310" t="s">
         <v>1047</v>
       </c>
@@ -26696,6 +27225,9 @@
       <c r="C311" t="s">
         <v>1054</v>
       </c>
+      <c r="D311" t="s">
+        <v>1090</v>
+      </c>
       <c r="E311" t="s">
         <v>1047</v>
       </c>
@@ -26719,6 +27251,7 @@
       <c r="C312" t="s">
         <v>1046</v>
       </c>
+      <c r="D312" t="s"/>
       <c r="E312" t="s">
         <v>1047</v>
       </c>
@@ -26742,6 +27275,9 @@
       <c r="C313" t="s">
         <v>1052</v>
       </c>
+      <c r="D313" t="s">
+        <v>1090</v>
+      </c>
       <c r="E313" t="s">
         <v>1047</v>
       </c>
@@ -26765,6 +27301,7 @@
       <c r="C314" t="s">
         <v>1055</v>
       </c>
+      <c r="D314" t="s"/>
       <c r="E314" t="s">
         <v>1047</v>
       </c>
@@ -26788,6 +27325,7 @@
       <c r="C315" t="s">
         <v>1055</v>
       </c>
+      <c r="D315" t="s"/>
       <c r="E315" t="s">
         <v>1047</v>
       </c>
@@ -26811,6 +27349,9 @@
       <c r="C316" t="s">
         <v>1054</v>
       </c>
+      <c r="D316" t="s">
+        <v>1090</v>
+      </c>
       <c r="E316" t="s">
         <v>1047</v>
       </c>
@@ -26834,6 +27375,7 @@
       <c r="C317" t="s">
         <v>1055</v>
       </c>
+      <c r="D317" t="s"/>
       <c r="E317" t="s">
         <v>1047</v>
       </c>
@@ -26857,6 +27399,7 @@
       <c r="C318" t="s">
         <v>1057</v>
       </c>
+      <c r="D318" t="s"/>
       <c r="E318" t="s">
         <v>1047</v>
       </c>
@@ -26880,6 +27423,9 @@
       <c r="C319" t="s">
         <v>1052</v>
       </c>
+      <c r="D319" t="s">
+        <v>1090</v>
+      </c>
       <c r="E319" t="s">
         <v>1047</v>
       </c>
@@ -26903,6 +27449,7 @@
       <c r="C320" t="s">
         <v>1050</v>
       </c>
+      <c r="D320" t="s"/>
       <c r="E320" t="s">
         <v>1047</v>
       </c>
@@ -26926,6 +27473,9 @@
       <c r="C321" t="s">
         <v>1052</v>
       </c>
+      <c r="D321" t="s">
+        <v>1090</v>
+      </c>
       <c r="E321" t="s">
         <v>1047</v>
       </c>
@@ -26949,6 +27499,9 @@
       <c r="C322" t="s">
         <v>1074</v>
       </c>
+      <c r="D322" t="s">
+        <v>1090</v>
+      </c>
       <c r="E322" t="s">
         <v>1047</v>
       </c>
@@ -26972,6 +27525,7 @@
       <c r="C323" t="s">
         <v>1055</v>
       </c>
+      <c r="D323" t="s"/>
       <c r="E323" t="s">
         <v>1047</v>
       </c>
@@ -26995,6 +27549,9 @@
       <c r="C324" t="s">
         <v>1075</v>
       </c>
+      <c r="D324" t="s">
+        <v>1089</v>
+      </c>
       <c r="E324" t="s">
         <v>1047</v>
       </c>
@@ -27018,6 +27575,7 @@
       <c r="C325" t="s">
         <v>1057</v>
       </c>
+      <c r="D325" t="s"/>
       <c r="E325" t="s">
         <v>1047</v>
       </c>
@@ -27041,6 +27599,9 @@
       <c r="C326" t="s">
         <v>1061</v>
       </c>
+      <c r="D326" t="s">
+        <v>1090</v>
+      </c>
       <c r="E326" t="s">
         <v>1047</v>
       </c>
@@ -27064,6 +27625,7 @@
       <c r="C327" t="s">
         <v>1087</v>
       </c>
+      <c r="D327" t="s"/>
       <c r="E327" t="s">
         <v>1047</v>
       </c>
@@ -27087,6 +27649,7 @@
       <c r="C328" t="s">
         <v>1050</v>
       </c>
+      <c r="D328" t="s"/>
       <c r="E328" t="s">
         <v>1047</v>
       </c>
@@ -27110,6 +27673,7 @@
       <c r="C329" t="s">
         <v>1076</v>
       </c>
+      <c r="D329" t="s"/>
       <c r="E329" t="s">
         <v>1047</v>
       </c>
@@ -27133,6 +27697,7 @@
       <c r="C330" t="s">
         <v>1067</v>
       </c>
+      <c r="D330" t="s"/>
       <c r="E330" t="s">
         <v>1047</v>
       </c>
@@ -27156,6 +27721,9 @@
       <c r="C331" t="s">
         <v>1066</v>
       </c>
+      <c r="D331" t="s">
+        <v>1089</v>
+      </c>
       <c r="E331" t="s">
         <v>1047</v>
       </c>
@@ -27179,6 +27747,9 @@
       <c r="C332" t="s">
         <v>1052</v>
       </c>
+      <c r="D332" t="s">
+        <v>1090</v>
+      </c>
       <c r="E332" t="s">
         <v>1047</v>
       </c>
@@ -27202,6 +27773,9 @@
       <c r="C333" t="s">
         <v>1061</v>
       </c>
+      <c r="D333" t="s">
+        <v>1090</v>
+      </c>
       <c r="E333" t="s">
         <v>1047</v>
       </c>
@@ -27225,6 +27799,9 @@
       <c r="C334" t="s">
         <v>1052</v>
       </c>
+      <c r="D334" t="s">
+        <v>1090</v>
+      </c>
       <c r="E334" t="s">
         <v>1047</v>
       </c>
@@ -27248,6 +27825,7 @@
       <c r="C335" t="s">
         <v>1055</v>
       </c>
+      <c r="D335" t="s"/>
       <c r="E335" t="s">
         <v>1047</v>
       </c>
@@ -27271,6 +27849,7 @@
       <c r="C336" t="s">
         <v>1057</v>
       </c>
+      <c r="D336" t="s"/>
       <c r="E336" t="s">
         <v>1047</v>
       </c>
@@ -27294,6 +27873,7 @@
       <c r="C337" t="s">
         <v>1068</v>
       </c>
+      <c r="D337" t="s"/>
       <c r="E337" t="s">
         <v>1047</v>
       </c>
@@ -27317,6 +27897,7 @@
       <c r="C338" t="s">
         <v>1067</v>
       </c>
+      <c r="D338" t="s"/>
       <c r="E338" t="s">
         <v>1047</v>
       </c>
@@ -27340,6 +27921,7 @@
       <c r="C339" t="s">
         <v>1055</v>
       </c>
+      <c r="D339" t="s"/>
       <c r="E339" t="s">
         <v>1047</v>
       </c>
@@ -27363,6 +27945,7 @@
       <c r="C340" t="s">
         <v>1057</v>
       </c>
+      <c r="D340" t="s"/>
       <c r="E340" t="s">
         <v>1047</v>
       </c>
@@ -27386,6 +27969,9 @@
       <c r="C341" t="s">
         <v>1061</v>
       </c>
+      <c r="D341" t="s">
+        <v>1090</v>
+      </c>
       <c r="E341" t="s">
         <v>1047</v>
       </c>
@@ -27409,6 +27995,7 @@
       <c r="C342" t="s">
         <v>1057</v>
       </c>
+      <c r="D342" t="s"/>
       <c r="E342" t="s">
         <v>1047</v>
       </c>
@@ -27432,6 +28019,9 @@
       <c r="C343" t="s">
         <v>1061</v>
       </c>
+      <c r="D343" t="s">
+        <v>1090</v>
+      </c>
       <c r="E343" t="s">
         <v>1047</v>
       </c>
@@ -27455,6 +28045,9 @@
       <c r="C344" t="s">
         <v>1052</v>
       </c>
+      <c r="D344" t="s">
+        <v>1090</v>
+      </c>
       <c r="E344" t="s">
         <v>1047</v>
       </c>
@@ -27478,6 +28071,7 @@
       <c r="C345" t="s">
         <v>1057</v>
       </c>
+      <c r="D345" t="s"/>
       <c r="E345" t="s">
         <v>1047</v>
       </c>
@@ -27501,6 +28095,7 @@
       <c r="C346" t="s">
         <v>1050</v>
       </c>
+      <c r="D346" t="s"/>
       <c r="E346" t="s">
         <v>1047</v>
       </c>
@@ -27524,6 +28119,9 @@
       <c r="C347" t="s">
         <v>1066</v>
       </c>
+      <c r="D347" t="s">
+        <v>1089</v>
+      </c>
       <c r="E347" t="s">
         <v>1047</v>
       </c>
@@ -27547,6 +28145,7 @@
       <c r="C348" t="s">
         <v>1088</v>
       </c>
+      <c r="D348" t="s"/>
       <c r="E348" t="s">
         <v>1047</v>
       </c>
@@ -27570,6 +28169,9 @@
       <c r="C349" t="s">
         <v>1058</v>
       </c>
+      <c r="D349" t="s">
+        <v>1090</v>
+      </c>
       <c r="E349" t="s">
         <v>1047</v>
       </c>
@@ -27593,6 +28195,9 @@
       <c r="C350" t="s">
         <v>1052</v>
       </c>
+      <c r="D350" t="s">
+        <v>1090</v>
+      </c>
       <c r="E350" t="s">
         <v>1047</v>
       </c>
@@ -27616,6 +28221,7 @@
       <c r="C351" t="s">
         <v>1072</v>
       </c>
+      <c r="D351" t="s"/>
       <c r="E351" t="s">
         <v>1047</v>
       </c>
@@ -27639,6 +28245,9 @@
       <c r="C352" t="s">
         <v>1049</v>
       </c>
+      <c r="D352" t="s">
+        <v>1090</v>
+      </c>
       <c r="E352" t="s">
         <v>1047</v>
       </c>
@@ -27662,6 +28271,7 @@
       <c r="C353" t="s">
         <v>1072</v>
       </c>
+      <c r="D353" t="s"/>
       <c r="E353" t="s">
         <v>1047</v>
       </c>
@@ -27685,6 +28295,7 @@
       <c r="C354" t="s">
         <v>1070</v>
       </c>
+      <c r="D354" t="s"/>
       <c r="E354" t="s">
         <v>1047</v>
       </c>
@@ -27708,6 +28319,7 @@
       <c r="C355" t="s">
         <v>1055</v>
       </c>
+      <c r="D355" t="s"/>
       <c r="E355" t="s">
         <v>1047</v>
       </c>
@@ -27731,6 +28343,7 @@
       <c r="C356" t="s">
         <v>1078</v>
       </c>
+      <c r="D356" t="s"/>
       <c r="E356" t="s">
         <v>1047</v>
       </c>
@@ -27754,6 +28367,7 @@
       <c r="C357" t="s">
         <v>1057</v>
       </c>
+      <c r="D357" t="s"/>
       <c r="E357" t="s">
         <v>1047</v>
       </c>
@@ -27777,6 +28391,9 @@
       <c r="C358" t="s">
         <v>1074</v>
       </c>
+      <c r="D358" t="s">
+        <v>1090</v>
+      </c>
       <c r="E358" t="s">
         <v>1047</v>
       </c>
@@ -27800,6 +28417,9 @@
       <c r="C359" t="s">
         <v>1058</v>
       </c>
+      <c r="D359" t="s">
+        <v>1090</v>
+      </c>
       <c r="E359" t="s">
         <v>1047</v>
       </c>
@@ -27823,6 +28443,9 @@
       <c r="C360" t="s">
         <v>1052</v>
       </c>
+      <c r="D360" t="s">
+        <v>1090</v>
+      </c>
       <c r="E360" t="s">
         <v>1047</v>
       </c>
@@ -27846,6 +28469,9 @@
       <c r="C361" t="s">
         <v>1061</v>
       </c>
+      <c r="D361" t="s">
+        <v>1090</v>
+      </c>
       <c r="E361" t="s">
         <v>1047</v>
       </c>
@@ -27869,6 +28495,9 @@
       <c r="C362" t="s">
         <v>1074</v>
       </c>
+      <c r="D362" t="s">
+        <v>1090</v>
+      </c>
       <c r="E362" t="s">
         <v>1047</v>
       </c>
@@ -27892,6 +28521,9 @@
       <c r="C363" t="s">
         <v>1059</v>
       </c>
+      <c r="D363" t="s">
+        <v>1090</v>
+      </c>
       <c r="E363" t="s">
         <v>1047</v>
       </c>
@@ -27915,6 +28547,7 @@
       <c r="C364" t="s">
         <v>1086</v>
       </c>
+      <c r="D364" t="s"/>
       <c r="E364" t="s">
         <v>1047</v>
       </c>
@@ -27938,6 +28571,9 @@
       <c r="C365" t="s">
         <v>1049</v>
       </c>
+      <c r="D365" t="s">
+        <v>1090</v>
+      </c>
       <c r="E365" t="s">
         <v>1047</v>
       </c>
@@ -27961,6 +28597,7 @@
       <c r="C366" t="s">
         <v>1057</v>
       </c>
+      <c r="D366" t="s"/>
       <c r="E366" t="s">
         <v>1047</v>
       </c>
@@ -27984,6 +28621,7 @@
       <c r="C367" t="s">
         <v>1076</v>
       </c>
+      <c r="D367" t="s"/>
       <c r="E367" t="s">
         <v>1047</v>
       </c>
@@ -28007,6 +28645,9 @@
       <c r="C368" t="s">
         <v>1058</v>
       </c>
+      <c r="D368" t="s">
+        <v>1090</v>
+      </c>
       <c r="E368" t="s">
         <v>1047</v>
       </c>
@@ -28030,6 +28671,7 @@
       <c r="C369" t="s">
         <v>1050</v>
       </c>
+      <c r="D369" t="s"/>
       <c r="E369" t="s">
         <v>1047</v>
       </c>
@@ -28053,6 +28695,7 @@
       <c r="C370" t="s">
         <v>1055</v>
       </c>
+      <c r="D370" t="s"/>
       <c r="E370" t="s">
         <v>1047</v>
       </c>
@@ -28076,6 +28719,9 @@
       <c r="C371" t="s">
         <v>1052</v>
       </c>
+      <c r="D371" t="s">
+        <v>1090</v>
+      </c>
       <c r="E371" t="s">
         <v>1047</v>
       </c>
@@ -28099,6 +28745,7 @@
       <c r="C372" t="s">
         <v>1072</v>
       </c>
+      <c r="D372" t="s"/>
       <c r="E372" t="s">
         <v>1047</v>
       </c>
@@ -28122,6 +28769,7 @@
       <c r="C373" t="s">
         <v>1055</v>
       </c>
+      <c r="D373" t="s"/>
       <c r="E373" t="s">
         <v>1047</v>
       </c>
@@ -28145,6 +28793,9 @@
       <c r="C374" t="s">
         <v>1049</v>
       </c>
+      <c r="D374" t="s">
+        <v>1090</v>
+      </c>
       <c r="E374" t="s">
         <v>1047</v>
       </c>
@@ -28168,6 +28819,9 @@
       <c r="C375" t="s">
         <v>1049</v>
       </c>
+      <c r="D375" t="s">
+        <v>1090</v>
+      </c>
       <c r="E375" t="s">
         <v>1047</v>
       </c>
@@ -28191,6 +28845,7 @@
       <c r="C376" t="s">
         <v>1057</v>
       </c>
+      <c r="D376" t="s"/>
       <c r="E376" t="s">
         <v>1047</v>
       </c>
@@ -28214,6 +28869,9 @@
       <c r="C377" t="s">
         <v>1052</v>
       </c>
+      <c r="D377" t="s">
+        <v>1090</v>
+      </c>
       <c r="E377" t="s">
         <v>1047</v>
       </c>
@@ -28237,6 +28895,9 @@
       <c r="C378" t="s">
         <v>1059</v>
       </c>
+      <c r="D378" t="s">
+        <v>1090</v>
+      </c>
       <c r="E378" t="s">
         <v>1047</v>
       </c>
@@ -28260,6 +28921,9 @@
       <c r="C379" t="s">
         <v>1054</v>
       </c>
+      <c r="D379" t="s">
+        <v>1090</v>
+      </c>
       <c r="E379" t="s">
         <v>1047</v>
       </c>
@@ -28283,6 +28947,9 @@
       <c r="C380" t="s">
         <v>1049</v>
       </c>
+      <c r="D380" t="s">
+        <v>1090</v>
+      </c>
       <c r="E380" t="s">
         <v>1047</v>
       </c>
@@ -28306,6 +28973,7 @@
       <c r="C381" t="s">
         <v>1069</v>
       </c>
+      <c r="D381" t="s"/>
       <c r="E381" t="s">
         <v>1047</v>
       </c>
@@ -28329,6 +28997,9 @@
       <c r="C382" t="s">
         <v>1066</v>
       </c>
+      <c r="D382" t="s">
+        <v>1089</v>
+      </c>
       <c r="E382" t="s">
         <v>1047</v>
       </c>
@@ -28352,6 +29023,7 @@
       <c r="C383" t="s">
         <v>1072</v>
       </c>
+      <c r="D383" t="s"/>
       <c r="E383" t="s">
         <v>1047</v>
       </c>
@@ -28375,6 +29047,7 @@
       <c r="C384" t="s">
         <v>1055</v>
       </c>
+      <c r="D384" t="s"/>
       <c r="E384" t="s">
         <v>1047</v>
       </c>
@@ -28398,6 +29071,7 @@
       <c r="C385" t="s">
         <v>1050</v>
       </c>
+      <c r="D385" t="s"/>
       <c r="E385" t="s">
         <v>1047</v>
       </c>
@@ -28421,6 +29095,9 @@
       <c r="C386" t="s">
         <v>1061</v>
       </c>
+      <c r="D386" t="s">
+        <v>1090</v>
+      </c>
       <c r="E386" t="s">
         <v>1047</v>
       </c>
@@ -28444,6 +29121,7 @@
       <c r="C387" t="s">
         <v>1055</v>
       </c>
+      <c r="D387" t="s"/>
       <c r="E387" t="s">
         <v>1047</v>
       </c>
@@ -28467,6 +29145,9 @@
       <c r="C388" t="s">
         <v>1059</v>
       </c>
+      <c r="D388" t="s">
+        <v>1090</v>
+      </c>
       <c r="E388" t="s">
         <v>1047</v>
       </c>
@@ -28490,6 +29171,7 @@
       <c r="C389" t="s">
         <v>1050</v>
       </c>
+      <c r="D389" t="s"/>
       <c r="E389" t="s">
         <v>1047</v>
       </c>
@@ -28513,6 +29195,7 @@
       <c r="C390" t="s">
         <v>1071</v>
       </c>
+      <c r="D390" t="s"/>
       <c r="E390" t="s">
         <v>1047</v>
       </c>
@@ -28536,6 +29219,7 @@
       <c r="C391" t="s">
         <v>1046</v>
       </c>
+      <c r="D391" t="s"/>
       <c r="E391" t="s">
         <v>1047</v>
       </c>
@@ -28559,6 +29243,7 @@
       <c r="C392" t="s">
         <v>1050</v>
       </c>
+      <c r="D392" t="s"/>
       <c r="E392" t="s">
         <v>1047</v>
       </c>
@@ -28582,6 +29267,7 @@
       <c r="C393" t="s">
         <v>1055</v>
       </c>
+      <c r="D393" t="s"/>
       <c r="E393" t="s">
         <v>1047</v>
       </c>
@@ -28605,6 +29291,9 @@
       <c r="C394" t="s">
         <v>1052</v>
       </c>
+      <c r="D394" t="s">
+        <v>1090</v>
+      </c>
       <c r="E394" t="s">
         <v>1047</v>
       </c>
@@ -28628,6 +29317,9 @@
       <c r="C395" t="s">
         <v>1052</v>
       </c>
+      <c r="D395" t="s">
+        <v>1090</v>
+      </c>
       <c r="E395" t="s">
         <v>1047</v>
       </c>
@@ -28651,6 +29343,7 @@
       <c r="C396" t="s">
         <v>1055</v>
       </c>
+      <c r="D396" t="s"/>
       <c r="E396" t="s">
         <v>1047</v>
       </c>
@@ -28674,6 +29367,7 @@
       <c r="C397" t="s">
         <v>1055</v>
       </c>
+      <c r="D397" t="s"/>
       <c r="E397" t="s">
         <v>1047</v>
       </c>
@@ -28697,6 +29391,7 @@
       <c r="C398" t="s">
         <v>1083</v>
       </c>
+      <c r="D398" t="s"/>
       <c r="E398" t="s">
         <v>1047</v>
       </c>
@@ -28720,6 +29415,7 @@
       <c r="C399" t="s">
         <v>1070</v>
       </c>
+      <c r="D399" t="s"/>
       <c r="E399" t="s">
         <v>1047</v>
       </c>
@@ -28743,6 +29439,7 @@
       <c r="C400" t="s">
         <v>1065</v>
       </c>
+      <c r="D400" t="s"/>
       <c r="E400" t="s">
         <v>1047</v>
       </c>
@@ -28766,6 +29463,7 @@
       <c r="C401" t="s">
         <v>1056</v>
       </c>
+      <c r="D401" t="s"/>
       <c r="E401" t="s">
         <v>1047</v>
       </c>
@@ -28789,6 +29487,7 @@
       <c r="C402" t="s">
         <v>1050</v>
       </c>
+      <c r="D402" t="s"/>
       <c r="E402" t="s">
         <v>1047</v>
       </c>
@@ -28812,6 +29511,7 @@
       <c r="C403" t="s">
         <v>1057</v>
       </c>
+      <c r="D403" t="s"/>
       <c r="E403" t="s">
         <v>1047</v>
       </c>
@@ -28835,6 +29535,7 @@
       <c r="C404" t="s">
         <v>1050</v>
       </c>
+      <c r="D404" t="s"/>
       <c r="E404" t="s">
         <v>1047</v>
       </c>
@@ -28858,6 +29559,7 @@
       <c r="C405" t="s">
         <v>1057</v>
       </c>
+      <c r="D405" t="s"/>
       <c r="E405" t="s">
         <v>1047</v>
       </c>
@@ -28881,6 +29583,7 @@
       <c r="C406" t="s">
         <v>1050</v>
       </c>
+      <c r="D406" t="s"/>
       <c r="E406" t="s">
         <v>1047</v>
       </c>
@@ -28904,6 +29607,9 @@
       <c r="C407" t="s">
         <v>1052</v>
       </c>
+      <c r="D407" t="s">
+        <v>1090</v>
+      </c>
       <c r="E407" t="s">
         <v>1047</v>
       </c>
@@ -28927,6 +29633,7 @@
       <c r="C408" t="s">
         <v>1055</v>
       </c>
+      <c r="D408" t="s"/>
       <c r="E408" t="s">
         <v>1047</v>
       </c>
@@ -28950,6 +29657,7 @@
       <c r="C409" t="s">
         <v>1057</v>
       </c>
+      <c r="D409" t="s"/>
       <c r="E409" t="s">
         <v>1047</v>
       </c>
@@ -28973,6 +29681,7 @@
       <c r="C410" t="s">
         <v>1057</v>
       </c>
+      <c r="D410" t="s"/>
       <c r="E410" t="s">
         <v>1047</v>
       </c>
@@ -28996,6 +29705,7 @@
       <c r="C411" t="s">
         <v>1082</v>
       </c>
+      <c r="D411" t="s"/>
       <c r="E411" t="s">
         <v>1047</v>
       </c>
@@ -29019,6 +29729,9 @@
       <c r="C412" t="s">
         <v>1054</v>
       </c>
+      <c r="D412" t="s">
+        <v>1090</v>
+      </c>
       <c r="E412" t="s">
         <v>1047</v>
       </c>
@@ -29042,6 +29755,9 @@
       <c r="C413" t="s">
         <v>1049</v>
       </c>
+      <c r="D413" t="s">
+        <v>1090</v>
+      </c>
       <c r="E413" t="s">
         <v>1047</v>
       </c>
@@ -29065,6 +29781,7 @@
       <c r="C414" t="s">
         <v>1057</v>
       </c>
+      <c r="D414" t="s"/>
       <c r="E414" t="s">
         <v>1047</v>
       </c>
@@ -29088,6 +29805,7 @@
       <c r="C415" t="s">
         <v>1057</v>
       </c>
+      <c r="D415" t="s"/>
       <c r="E415" t="s">
         <v>1047</v>
       </c>
@@ -29110,6 +29828,9 @@
       </c>
       <c r="C416" t="s">
         <v>1059</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1090</v>
       </c>
       <c r="E416" t="s">
         <v>1047</v>
